--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7937,7 +7937,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="36">
+        <v>33</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="8">
         <f t="shared" si="0"/>
@@ -8620,7 +8622,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8656,7 +8658,7 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C376" sqref="C376"/>
+      <selection activeCell="C377" sqref="C377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15795,10 +15797,12 @@
         <f t="shared" si="24"/>
         <v>67898</v>
       </c>
-      <c r="C376" s="36"/>
+      <c r="C376" s="36">
+        <v>67931</v>
+      </c>
       <c r="D376" s="36">
         <f t="shared" si="23"/>
-        <v>-67898</v>
+        <v>33</v>
       </c>
       <c r="E376" s="34" t="s">
         <v>53</v>
@@ -15810,12 +15814,12 @@
       </c>
       <c r="B377" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67931</v>
       </c>
       <c r="C377" s="36"/>
       <c r="D377" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-67931</v>
       </c>
       <c r="E377" s="34" t="s">
         <v>56</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1214,21 +1214,21 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="34" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="34" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>9</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -2257,9 +2257,9 @@
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>99</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -2358,7 +2358,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -2381,7 +2381,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44743</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44744</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44745</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44746</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44747</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44748</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44749</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44750</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44751</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44752</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44753</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44754</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44755</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44756</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44757</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44758</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44759</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44760</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44761</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44762</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44763</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44764</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44765</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44766</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44767</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44768</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44769</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44770</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44771</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44772</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44773</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -3552,9 +3552,9 @@
       <selection activeCell="E25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>100</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -3653,7 +3653,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -3676,7 +3676,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -3739,7 +3739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44774</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44775</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44776</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44777</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44778</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44779</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44780</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44781</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44782</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44783</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44784</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44785</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44786</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44787</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44788</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44789</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44790</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44791</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44792</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44793</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44794</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44795</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44796</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44797</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44798</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44799</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44800</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44801</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44802</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44803</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44804</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -4847,9 +4847,9 @@
       <selection activeCell="D15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>101</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -4948,7 +4948,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -4971,7 +4971,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -5034,7 +5034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44805</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44806</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44807</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44808</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44809</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44810</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44811</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44812</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44813</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44814</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44815</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44816</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44817</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44818</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44819</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44820</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44821</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44822</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44823</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44824</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44825</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44826</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44827</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44828</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44829</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44830</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44831</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44832</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44833</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44834</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="14"/>
       <c r="C37" s="2"/>
@@ -6029,7 +6029,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -6138,9 +6138,9 @@
       <selection activeCell="R38" sqref="A1:U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>102</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -6239,7 +6239,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -6262,7 +6262,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -6325,7 +6325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44835</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44836</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44837</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44838</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44839</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44840</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44841</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44842</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44843</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44844</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44845</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44846</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44847</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44848</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44849</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44850</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44851</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44852</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44853</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44854</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44855</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44856</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44857</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44858</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44859</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44860</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44861</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44862</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44863</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44864</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44865</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -7430,12 +7430,12 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>103</v>
       </c>
@@ -7460,7 +7460,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -7534,7 +7534,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -7557,7 +7557,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -7620,7 +7620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44866</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44867</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44868</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44869</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44870</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44871</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44872</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44873</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44874</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44875</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44876</v>
       </c>
@@ -7970,7 +7970,9 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="36"/>
+      <c r="R17" s="36">
+        <v>42</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="8">
         <f t="shared" si="0"/>
@@ -7981,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44877</v>
       </c>
@@ -8012,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44878</v>
       </c>
@@ -8043,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44879</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44880</v>
       </c>
@@ -8105,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44881</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44882</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44883</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44884</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44885</v>
       </c>
@@ -8260,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44886</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44887</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44888</v>
       </c>
@@ -8353,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44889</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44890</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44891</v>
       </c>
@@ -8446,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44892</v>
       </c>
@@ -8477,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44893</v>
       </c>
@@ -8502,7 +8504,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44894</v>
       </c>
@@ -8527,7 +8529,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44895</v>
       </c>
@@ -8552,7 +8554,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -8622,7 +8624,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8658,18 +8660,18 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C377" sqref="C377"/>
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -8684,7 +8686,7 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>23</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>25</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>26</v>
       </c>
@@ -8778,7 +8780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>27</v>
       </c>
@@ -8797,7 +8799,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>29</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>30</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>31</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>32</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>33</v>
       </c>
@@ -8911,7 +8913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>34</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>35</v>
       </c>
@@ -8949,7 +8951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>37</v>
       </c>
@@ -8987,7 +8989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>38</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>39</v>
       </c>
@@ -9025,7 +9027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>40</v>
       </c>
@@ -9044,7 +9046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>41</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>42</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>43</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>44</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>45</v>
       </c>
@@ -9139,7 +9141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>47</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>48</v>
       </c>
@@ -9196,7 +9198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>49</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>50</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>51</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>62</v>
       </c>
@@ -9272,7 +9274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>92</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>63</v>
       </c>
@@ -9310,7 +9312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>64</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>65</v>
       </c>
@@ -9348,7 +9350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>66</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>67</v>
       </c>
@@ -9386,7 +9388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>68</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>69</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>70</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>71</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>72</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>73</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>74</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>75</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>76</v>
       </c>
@@ -9557,7 +9559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>77</v>
       </c>
@@ -9576,7 +9578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>78</v>
       </c>
@@ -9595,7 +9597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>79</v>
       </c>
@@ -9614,7 +9616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>80</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>81</v>
       </c>
@@ -9652,7 +9654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>82</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>83</v>
       </c>
@@ -9690,7 +9692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>84</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>85</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>87</v>
       </c>
@@ -9766,7 +9768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>88</v>
       </c>
@@ -9785,7 +9787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>89</v>
       </c>
@@ -9804,7 +9806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>90</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>91</v>
       </c>
@@ -9842,7 +9844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44563</v>
       </c>
@@ -9880,7 +9882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44564</v>
       </c>
@@ -9899,7 +9901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44565</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44566</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44567</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44568</v>
       </c>
@@ -9975,7 +9977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44569</v>
       </c>
@@ -9994,7 +9996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>44570</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44571</v>
       </c>
@@ -10032,7 +10034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>44572</v>
       </c>
@@ -10051,7 +10053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44573</v>
       </c>
@@ -10070,7 +10072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44574</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44575</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44576</v>
       </c>
@@ -10127,7 +10129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44577</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44578</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>44579</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>44580</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>44581</v>
       </c>
@@ -10222,7 +10224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>44582</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>44583</v>
       </c>
@@ -10260,7 +10262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>44584</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>44585</v>
       </c>
@@ -10298,7 +10300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>44586</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>44587</v>
       </c>
@@ -10336,7 +10338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>44588</v>
       </c>
@@ -10355,7 +10357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>44589</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>44590</v>
       </c>
@@ -10393,7 +10395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>44591</v>
       </c>
@@ -10412,7 +10414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>44592</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>44593</v>
       </c>
@@ -10450,7 +10452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="24">
         <v>44594</v>
       </c>
@@ -10469,7 +10471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
         <v>44595</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <v>44596</v>
       </c>
@@ -10507,7 +10509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <v>44597</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <v>44598</v>
       </c>
@@ -10545,7 +10547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <v>44599</v>
       </c>
@@ -10564,7 +10566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <v>44600</v>
       </c>
@@ -10583,7 +10585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
         <v>44601</v>
       </c>
@@ -10602,7 +10604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
         <v>44602</v>
       </c>
@@ -10621,7 +10623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
         <v>44603</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="24">
         <v>44604</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="24">
         <v>44605</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="24">
         <v>44606</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="24">
         <v>44607</v>
       </c>
@@ -10716,7 +10718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
         <v>44608</v>
       </c>
@@ -10735,7 +10737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="24">
         <v>44609</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="24">
         <v>44610</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="24">
         <v>44611</v>
       </c>
@@ -10792,7 +10794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="24">
         <v>44612</v>
       </c>
@@ -10811,7 +10813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="24">
         <v>44613</v>
       </c>
@@ -10830,7 +10832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="24">
         <v>44614</v>
       </c>
@@ -10849,7 +10851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="24">
         <v>44615</v>
       </c>
@@ -10868,7 +10870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="24">
         <v>44616</v>
       </c>
@@ -10887,7 +10889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="24">
         <v>44617</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="24">
         <v>44618</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="24">
         <v>44619</v>
       </c>
@@ -10944,7 +10946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="24">
         <v>44620</v>
       </c>
@@ -10963,7 +10965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="24">
         <v>44621</v>
       </c>
@@ -10982,7 +10984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="24">
         <v>44622</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="24">
         <v>44623</v>
       </c>
@@ -11020,7 +11022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="24">
         <v>44624</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="24">
         <v>44625</v>
       </c>
@@ -11058,7 +11060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="24">
         <v>44626</v>
       </c>
@@ -11077,7 +11079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="24">
         <v>44627</v>
       </c>
@@ -11096,7 +11098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="24">
         <v>44628</v>
       </c>
@@ -11115,7 +11117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="24">
         <v>44629</v>
       </c>
@@ -11134,7 +11136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="24">
         <v>44630</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="24">
         <v>44631</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="24">
         <v>44632</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="24">
         <v>44633</v>
       </c>
@@ -11210,7 +11212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="24">
         <v>44634</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="24">
         <v>44635</v>
       </c>
@@ -11248,7 +11250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="24">
         <v>44636</v>
       </c>
@@ -11267,7 +11269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="24">
         <v>44637</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="24">
         <v>44638</v>
       </c>
@@ -11305,7 +11307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="24">
         <v>44639</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="24">
         <v>44640</v>
       </c>
@@ -11343,7 +11345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="24">
         <v>44641</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="24">
         <v>44642</v>
       </c>
@@ -11381,7 +11383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="24">
         <v>44643</v>
       </c>
@@ -11400,7 +11402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="24">
         <v>44644</v>
       </c>
@@ -11419,7 +11421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="24">
         <v>44645</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="24">
         <v>44646</v>
       </c>
@@ -11457,7 +11459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="24">
         <v>44647</v>
       </c>
@@ -11476,7 +11478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="24">
         <v>44648</v>
       </c>
@@ -11495,7 +11497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="24">
         <v>44649</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="24">
         <v>44650</v>
       </c>
@@ -11533,7 +11535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="24">
         <v>44651</v>
       </c>
@@ -11552,7 +11554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="24">
         <v>44652</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="24">
         <v>44653</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="24">
         <v>44654</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="24">
         <v>44655</v>
       </c>
@@ -11628,7 +11630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="24">
         <v>44656</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="24">
         <v>44657</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="24">
         <v>44658</v>
       </c>
@@ -11685,7 +11687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="24">
         <v>44659</v>
       </c>
@@ -11704,7 +11706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="24">
         <v>44660</v>
       </c>
@@ -11723,7 +11725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="24">
         <v>44661</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="24">
         <v>44662</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="24">
         <v>44663</v>
       </c>
@@ -11780,7 +11782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="24">
         <v>44664</v>
       </c>
@@ -11799,7 +11801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="24">
         <v>44665</v>
       </c>
@@ -11818,7 +11820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="24">
         <v>44666</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="24">
         <v>44667</v>
       </c>
@@ -11856,7 +11858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="24">
         <v>44668</v>
       </c>
@@ -11875,7 +11877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="24">
         <v>44669</v>
       </c>
@@ -11894,7 +11896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="24">
         <v>44670</v>
       </c>
@@ -11913,7 +11915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="24">
         <v>44671</v>
       </c>
@@ -11932,7 +11934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="24">
         <v>44672</v>
       </c>
@@ -11951,7 +11953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="24">
         <v>44673</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="24">
         <v>44674</v>
       </c>
@@ -11989,7 +11991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="24">
         <v>44675</v>
       </c>
@@ -12008,7 +12010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="24">
         <v>44676</v>
       </c>
@@ -12027,7 +12029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="24">
         <v>44677</v>
       </c>
@@ -12046,7 +12048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="24">
         <v>44678</v>
       </c>
@@ -12065,7 +12067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="24">
         <v>44679</v>
       </c>
@@ -12084,7 +12086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="24">
         <v>44680</v>
       </c>
@@ -12103,7 +12105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="24">
         <v>44681</v>
       </c>
@@ -12122,7 +12124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="24">
         <v>44682</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="24">
         <v>44683</v>
       </c>
@@ -12160,7 +12162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="24">
         <v>44684</v>
       </c>
@@ -12179,7 +12181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="24">
         <v>44685</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="24">
         <v>44686</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="24">
         <v>44687</v>
       </c>
@@ -12236,7 +12238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="24">
         <v>44688</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="24">
         <v>44689</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="24">
         <v>44690</v>
       </c>
@@ -12293,7 +12295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="24">
         <v>44691</v>
       </c>
@@ -12312,7 +12314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="24">
         <v>44692</v>
       </c>
@@ -12331,7 +12333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="24">
         <v>44693</v>
       </c>
@@ -12350,7 +12352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="24">
         <v>44694</v>
       </c>
@@ -12369,7 +12371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="24">
         <v>44695</v>
       </c>
@@ -12388,7 +12390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="24">
         <v>44696</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="24">
         <v>44697</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="24">
         <v>44698</v>
       </c>
@@ -12445,7 +12447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="24">
         <v>44699</v>
       </c>
@@ -12464,7 +12466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="24">
         <v>44700</v>
       </c>
@@ -12483,7 +12485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="24">
         <v>44701</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="24">
         <v>44702</v>
       </c>
@@ -12521,7 +12523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="24">
         <v>44703</v>
       </c>
@@ -12540,7 +12542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="24">
         <v>44704</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="24">
         <v>44705</v>
       </c>
@@ -12578,7 +12580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="24">
         <v>44706</v>
       </c>
@@ -12597,7 +12599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="24">
         <v>44707</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="24">
         <v>44708</v>
       </c>
@@ -12635,7 +12637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="24">
         <v>44709</v>
       </c>
@@ -12654,7 +12656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="24">
         <v>44710</v>
       </c>
@@ -12673,7 +12675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="24">
         <v>44711</v>
       </c>
@@ -12692,7 +12694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="24">
         <v>44712</v>
       </c>
@@ -12711,7 +12713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="24">
         <v>44713</v>
       </c>
@@ -12730,7 +12732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="24">
         <v>44714</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="24">
         <v>44715</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="24">
         <v>44716</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="24">
         <v>44717</v>
       </c>
@@ -12806,7 +12808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="24">
         <v>44718</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="24">
         <v>44719</v>
       </c>
@@ -12844,7 +12846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="24">
         <v>44720</v>
       </c>
@@ -12863,7 +12865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="24">
         <v>44721</v>
       </c>
@@ -12882,7 +12884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="24">
         <v>44722</v>
       </c>
@@ -12901,7 +12903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="24">
         <v>44723</v>
       </c>
@@ -12920,7 +12922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="24">
         <v>44724</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="24">
         <v>44725</v>
       </c>
@@ -12958,7 +12960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="24">
         <v>44726</v>
       </c>
@@ -12977,7 +12979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="24">
         <v>44727</v>
       </c>
@@ -12996,7 +12998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="24">
         <v>44728</v>
       </c>
@@ -13015,7 +13017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="24">
         <v>44729</v>
       </c>
@@ -13034,7 +13036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="24">
         <v>44730</v>
       </c>
@@ -13053,7 +13055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="24">
         <v>44731</v>
       </c>
@@ -13072,7 +13074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="24">
         <v>44732</v>
       </c>
@@ -13091,7 +13093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="24">
         <v>44733</v>
       </c>
@@ -13110,7 +13112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="24">
         <v>44734</v>
       </c>
@@ -13129,7 +13131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="24">
         <v>44735</v>
       </c>
@@ -13148,7 +13150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="24">
         <v>44736</v>
       </c>
@@ -13167,7 +13169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="24">
         <v>44737</v>
       </c>
@@ -13186,7 +13188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="24">
         <v>44738</v>
       </c>
@@ -13205,7 +13207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="24">
         <v>44739</v>
       </c>
@@ -13224,7 +13226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="24">
         <v>44740</v>
       </c>
@@ -13243,7 +13245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="24">
         <v>44741</v>
       </c>
@@ -13262,7 +13264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="24">
         <v>44742</v>
       </c>
@@ -13281,7 +13283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="24">
         <v>44743</v>
       </c>
@@ -13300,7 +13302,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="24">
         <v>44744</v>
       </c>
@@ -13319,7 +13321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="24">
         <v>44745</v>
       </c>
@@ -13338,7 +13340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="24">
         <v>44746</v>
       </c>
@@ -13357,7 +13359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="24">
         <v>44747</v>
       </c>
@@ -13376,7 +13378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="24">
         <v>44748</v>
       </c>
@@ -13395,7 +13397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="24">
         <v>44749</v>
       </c>
@@ -13414,7 +13416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="24">
         <v>44750</v>
       </c>
@@ -13433,7 +13435,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="24">
         <v>44751</v>
       </c>
@@ -13452,7 +13454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="24">
         <v>44752</v>
       </c>
@@ -13471,7 +13473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="24">
         <v>44753</v>
       </c>
@@ -13490,7 +13492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="24">
         <v>44754</v>
       </c>
@@ -13509,7 +13511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="24">
         <v>44755</v>
       </c>
@@ -13528,7 +13530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="24">
         <v>44756</v>
       </c>
@@ -13547,7 +13549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="24">
         <v>44757</v>
       </c>
@@ -13566,7 +13568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="24">
         <v>44758</v>
       </c>
@@ -13585,7 +13587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="24">
         <v>44759</v>
       </c>
@@ -13604,7 +13606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="24">
         <v>44760</v>
       </c>
@@ -13623,7 +13625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="24">
         <v>44761</v>
       </c>
@@ -13642,7 +13644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="24">
         <v>44762</v>
       </c>
@@ -13661,7 +13663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="24">
         <v>44763</v>
       </c>
@@ -13680,7 +13682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="24">
         <v>44764</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="24">
         <v>44765</v>
       </c>
@@ -13718,7 +13720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="24">
         <v>44766</v>
       </c>
@@ -13737,7 +13739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="24">
         <v>44767</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="24">
         <v>44768</v>
       </c>
@@ -13775,7 +13777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="24">
         <v>44769</v>
       </c>
@@ -13794,7 +13796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="24">
         <v>44770</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="24">
         <v>44771</v>
       </c>
@@ -13832,7 +13834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="24">
         <v>44772</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="24">
         <v>44773</v>
       </c>
@@ -13870,7 +13872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="24">
         <v>44774</v>
       </c>
@@ -13889,7 +13891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="24">
         <v>44775</v>
       </c>
@@ -13908,7 +13910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="24">
         <v>44776</v>
       </c>
@@ -13927,7 +13929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="24">
         <v>44777</v>
       </c>
@@ -13946,7 +13948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="24">
         <v>44778</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="24">
         <v>44779</v>
       </c>
@@ -13984,7 +13986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="24">
         <v>44780</v>
       </c>
@@ -14003,7 +14005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="24">
         <v>44781</v>
       </c>
@@ -14022,7 +14024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="24">
         <v>44782</v>
       </c>
@@ -14041,7 +14043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="24">
         <v>44783</v>
       </c>
@@ -14060,7 +14062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="24">
         <v>44784</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="24">
         <v>44785</v>
       </c>
@@ -14098,7 +14100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="24">
         <v>44786</v>
       </c>
@@ -14117,7 +14119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="24">
         <v>44787</v>
       </c>
@@ -14136,7 +14138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="24">
         <v>44788</v>
       </c>
@@ -14155,7 +14157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="24">
         <v>44789</v>
       </c>
@@ -14174,7 +14176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="24">
         <v>44790</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="24">
         <v>44791</v>
       </c>
@@ -14212,7 +14214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="24">
         <v>44792</v>
       </c>
@@ -14231,7 +14233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="24">
         <v>44793</v>
       </c>
@@ -14250,7 +14252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="24">
         <v>44794</v>
       </c>
@@ -14269,7 +14271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="24">
         <v>44795</v>
       </c>
@@ -14288,7 +14290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="24">
         <v>44796</v>
       </c>
@@ -14307,7 +14309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="24">
         <v>44797</v>
       </c>
@@ -14326,7 +14328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="24">
         <v>44798</v>
       </c>
@@ -14345,7 +14347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="24">
         <v>44799</v>
       </c>
@@ -14364,7 +14366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="24">
         <v>44800</v>
       </c>
@@ -14383,7 +14385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="24">
         <v>44801</v>
       </c>
@@ -14402,7 +14404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="24">
         <v>44802</v>
       </c>
@@ -14421,7 +14423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="24">
         <v>44803</v>
       </c>
@@ -14440,7 +14442,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="24">
         <v>44804</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="24">
         <v>44805</v>
       </c>
@@ -14478,7 +14480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="24">
         <v>44806</v>
       </c>
@@ -14497,7 +14499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="24">
         <v>44807</v>
       </c>
@@ -14516,7 +14518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="24">
         <v>44808</v>
       </c>
@@ -14535,7 +14537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="24">
         <v>44809</v>
       </c>
@@ -14554,7 +14556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="24">
         <v>44810</v>
       </c>
@@ -14573,7 +14575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="24">
         <v>44811</v>
       </c>
@@ -14592,7 +14594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="24">
         <v>44812</v>
       </c>
@@ -14611,7 +14613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="24">
         <v>44813</v>
       </c>
@@ -14630,7 +14632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="24">
         <v>44814</v>
       </c>
@@ -14649,7 +14651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="24">
         <v>44815</v>
       </c>
@@ -14668,7 +14670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="24">
         <v>44816</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="24">
         <v>44817</v>
       </c>
@@ -14706,7 +14708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="24">
         <v>44818</v>
       </c>
@@ -14725,7 +14727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="24">
         <v>44819</v>
       </c>
@@ -14744,7 +14746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="24">
         <v>44820</v>
       </c>
@@ -14763,7 +14765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="24">
         <v>44821</v>
       </c>
@@ -14782,7 +14784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="24">
         <v>44822</v>
       </c>
@@ -14801,7 +14803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="24">
         <v>44823</v>
       </c>
@@ -14820,7 +14822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="24">
         <v>44824</v>
       </c>
@@ -14839,7 +14841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="24">
         <v>44825</v>
       </c>
@@ -14858,7 +14860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="24">
         <v>44826</v>
       </c>
@@ -14877,7 +14879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="24">
         <v>44827</v>
       </c>
@@ -14896,7 +14898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="24">
         <v>44828</v>
       </c>
@@ -14915,7 +14917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="24">
         <v>44829</v>
       </c>
@@ -14934,7 +14936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="24">
         <v>44830</v>
       </c>
@@ -14953,7 +14955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="24">
         <v>44831</v>
       </c>
@@ -14972,7 +14974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="24">
         <v>44832</v>
       </c>
@@ -14991,7 +14993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="24">
         <v>44833</v>
       </c>
@@ -15010,7 +15012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="24">
         <v>44834</v>
       </c>
@@ -15029,7 +15031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="24">
         <v>44835</v>
       </c>
@@ -15048,7 +15050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="24">
         <v>44836</v>
       </c>
@@ -15067,7 +15069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="24">
         <v>44837</v>
       </c>
@@ -15086,7 +15088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="24">
         <v>44838</v>
       </c>
@@ -15105,7 +15107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="24">
         <v>44839</v>
       </c>
@@ -15124,7 +15126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="24">
         <v>44840</v>
       </c>
@@ -15143,7 +15145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="24">
         <v>44841</v>
       </c>
@@ -15162,7 +15164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="24">
         <v>44842</v>
       </c>
@@ -15181,7 +15183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="24">
         <v>44843</v>
       </c>
@@ -15200,7 +15202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="24">
         <v>44844</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="24">
         <v>44845</v>
       </c>
@@ -15238,7 +15240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="24">
         <v>44846</v>
       </c>
@@ -15257,7 +15259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="24">
         <v>44847</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="24">
         <v>44848</v>
       </c>
@@ -15295,7 +15297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="24">
         <v>44849</v>
       </c>
@@ -15314,7 +15316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="24">
         <v>44850</v>
       </c>
@@ -15333,7 +15335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="24">
         <v>44851</v>
       </c>
@@ -15352,7 +15354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="24">
         <v>44852</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="24">
         <v>44853</v>
       </c>
@@ -15390,7 +15392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="24">
         <v>44854</v>
       </c>
@@ -15409,7 +15411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="24">
         <v>44855</v>
       </c>
@@ -15428,7 +15430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="24">
         <v>44856</v>
       </c>
@@ -15447,7 +15449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="24">
         <v>44857</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="24">
         <v>44858</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="24">
         <v>44859</v>
       </c>
@@ -15504,7 +15506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="24">
         <v>44860</v>
       </c>
@@ -15523,7 +15525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="24">
         <v>44861</v>
       </c>
@@ -15542,7 +15544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="24">
         <v>44862</v>
       </c>
@@ -15561,7 +15563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="24">
         <v>44863</v>
       </c>
@@ -15580,7 +15582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="24">
         <v>44864</v>
       </c>
@@ -15599,7 +15601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="24">
         <v>44865</v>
       </c>
@@ -15618,7 +15620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="24">
         <v>44866</v>
       </c>
@@ -15637,7 +15639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="24">
         <v>44867</v>
       </c>
@@ -15656,7 +15658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="24">
         <v>44868</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="24">
         <v>44869</v>
       </c>
@@ -15694,7 +15696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="24">
         <v>44870</v>
       </c>
@@ -15713,7 +15715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="24">
         <v>44871</v>
       </c>
@@ -15732,7 +15734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="24">
         <v>44872</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="24">
         <v>44873</v>
       </c>
@@ -15770,7 +15772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="24">
         <v>44874</v>
       </c>
@@ -15789,7 +15791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="24">
         <v>44875</v>
       </c>
@@ -15808,7 +15810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="24">
         <v>44876</v>
       </c>
@@ -15816,33 +15818,35 @@
         <f t="shared" si="24"/>
         <v>67931</v>
       </c>
-      <c r="C377" s="36"/>
+      <c r="C377" s="36">
+        <v>67973</v>
+      </c>
       <c r="D377" s="36">
         <f t="shared" si="23"/>
-        <v>-67931</v>
+        <v>42</v>
       </c>
       <c r="E377" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="24">
         <v>44877</v>
       </c>
       <c r="B378" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67973</v>
       </c>
       <c r="C378" s="36"/>
       <c r="D378" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-67973</v>
       </c>
       <c r="E378" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="24">
         <v>44878</v>
       </c>
@@ -15859,7 +15863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="24">
         <v>44879</v>
       </c>
@@ -15876,7 +15880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="24">
         <v>44880</v>
       </c>
@@ -15893,7 +15897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="24">
         <v>44881</v>
       </c>
@@ -15910,7 +15914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="24">
         <v>44882</v>
       </c>
@@ -15927,7 +15931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="24">
         <v>44883</v>
       </c>
@@ -15944,7 +15948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="24">
         <v>44884</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="24">
         <v>44885</v>
       </c>
@@ -15978,7 +15982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="24">
         <v>44886</v>
       </c>
@@ -15995,7 +15999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="24">
         <v>44887</v>
       </c>
@@ -16012,7 +16016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="24">
         <v>44888</v>
       </c>
@@ -16029,7 +16033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="24">
         <v>44889</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="24">
         <v>44890</v>
       </c>
@@ -16063,7 +16067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="24">
         <v>44891</v>
       </c>
@@ -16080,7 +16084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="24">
         <v>44892</v>
       </c>
@@ -16097,7 +16101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="24">
         <v>44893</v>
       </c>
@@ -16114,7 +16118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="24">
         <v>44894</v>
       </c>
@@ -16131,7 +16135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="24">
         <v>44895</v>
       </c>
@@ -16148,7 +16152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="24">
         <v>44896</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="24">
         <v>44897</v>
       </c>
@@ -16182,7 +16186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="24">
         <v>44898</v>
       </c>
@@ -16199,7 +16203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="24">
         <v>44899</v>
       </c>
@@ -16216,7 +16220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="24">
         <v>44900</v>
       </c>
@@ -16233,7 +16237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="24">
         <v>44901</v>
       </c>
@@ -16250,7 +16254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="24">
         <v>44902</v>
       </c>
@@ -16267,7 +16271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="24">
         <v>44903</v>
       </c>
@@ -16284,7 +16288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="24">
         <v>44904</v>
       </c>
@@ -16315,24 +16319,24 @@
       <selection sqref="A1:U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="13" width="7.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="13" width="7.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="17" width="7.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -16357,7 +16361,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -16373,7 +16377,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -16408,7 +16412,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -16431,7 +16435,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -16454,7 +16458,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -16517,7 +16521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44501</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44502</v>
       </c>
@@ -16595,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44503</v>
       </c>
@@ -16634,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44504</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44505</v>
       </c>
@@ -16712,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44506</v>
       </c>
@@ -16751,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44507</v>
       </c>
@@ -16790,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44508</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44509</v>
       </c>
@@ -16868,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44510</v>
       </c>
@@ -16907,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44511</v>
       </c>
@@ -16946,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44512</v>
       </c>
@@ -16985,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44513</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44514</v>
       </c>
@@ -17063,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44515</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44516</v>
       </c>
@@ -17141,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44517</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44518</v>
       </c>
@@ -17219,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44519</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44520</v>
       </c>
@@ -17297,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44521</v>
       </c>
@@ -17336,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44522</v>
       </c>
@@ -17375,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44523</v>
       </c>
@@ -17414,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44524</v>
       </c>
@@ -17453,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44525</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44526</v>
       </c>
@@ -17531,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44527</v>
       </c>
@@ -17570,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44528</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44529</v>
       </c>
@@ -17648,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44530</v>
       </c>
@@ -17687,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44531</v>
       </c>
@@ -17721,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -17831,9 +17835,9 @@
       <selection sqref="A1:U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>61</v>
       </c>
@@ -17858,7 +17862,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -17874,7 +17878,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -17909,7 +17913,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -17932,7 +17936,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -17955,7 +17959,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -18018,7 +18022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44531</v>
       </c>
@@ -18057,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44532</v>
       </c>
@@ -18096,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44533</v>
       </c>
@@ -18135,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44534</v>
       </c>
@@ -18174,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44535</v>
       </c>
@@ -18213,7 +18217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44536</v>
       </c>
@@ -18252,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44537</v>
       </c>
@@ -18291,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44538</v>
       </c>
@@ -18330,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44539</v>
       </c>
@@ -18369,7 +18373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44540</v>
       </c>
@@ -18408,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44541</v>
       </c>
@@ -18447,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44542</v>
       </c>
@@ -18486,7 +18490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44543</v>
       </c>
@@ -18525,7 +18529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44544</v>
       </c>
@@ -18564,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44545</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44546</v>
       </c>
@@ -18642,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44547</v>
       </c>
@@ -18681,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44548</v>
       </c>
@@ -18720,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44549</v>
       </c>
@@ -18759,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44550</v>
       </c>
@@ -18798,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44551</v>
       </c>
@@ -18837,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44552</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44553</v>
       </c>
@@ -18915,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44554</v>
       </c>
@@ -18954,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44555</v>
       </c>
@@ -18993,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44556</v>
       </c>
@@ -19032,7 +19036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44557</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44558</v>
       </c>
@@ -19110,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44559</v>
       </c>
@@ -19149,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44560</v>
       </c>
@@ -19188,7 +19192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44561</v>
       </c>
@@ -19224,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -19333,12 +19337,12 @@
       <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>94</v>
       </c>
@@ -19363,7 +19367,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -19379,7 +19383,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -19414,7 +19418,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -19437,7 +19441,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -19460,7 +19464,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -19523,7 +19527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44562</v>
       </c>
@@ -19562,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44563</v>
       </c>
@@ -19601,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44564</v>
       </c>
@@ -19640,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44565</v>
       </c>
@@ -19679,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44566</v>
       </c>
@@ -19718,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44567</v>
       </c>
@@ -19757,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44568</v>
       </c>
@@ -19796,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44569</v>
       </c>
@@ -19835,7 +19839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44570</v>
       </c>
@@ -19874,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44571</v>
       </c>
@@ -19913,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44572</v>
       </c>
@@ -19952,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44573</v>
       </c>
@@ -19991,7 +19995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44574</v>
       </c>
@@ -20030,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44575</v>
       </c>
@@ -20069,7 +20073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44576</v>
       </c>
@@ -20108,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44577</v>
       </c>
@@ -20147,7 +20151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44578</v>
       </c>
@@ -20186,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44579</v>
       </c>
@@ -20225,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44580</v>
       </c>
@@ -20264,7 +20268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44581</v>
       </c>
@@ -20303,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44582</v>
       </c>
@@ -20342,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44583</v>
       </c>
@@ -20381,7 +20385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44584</v>
       </c>
@@ -20420,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44585</v>
       </c>
@@ -20459,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44586</v>
       </c>
@@ -20498,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44587</v>
       </c>
@@ -20537,7 +20541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44588</v>
       </c>
@@ -20576,7 +20580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44589</v>
       </c>
@@ -20615,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44590</v>
       </c>
@@ -20653,7 +20657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44591</v>
       </c>
@@ -20691,7 +20695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44592</v>
       </c>
@@ -20726,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -20835,12 +20839,12 @@
       <selection sqref="A1:U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>93</v>
       </c>
@@ -20865,7 +20869,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -20881,7 +20885,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -20916,7 +20920,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -20939,7 +20943,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -20962,7 +20966,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -21025,7 +21029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44593</v>
       </c>
@@ -21064,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44594</v>
       </c>
@@ -21103,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44595</v>
       </c>
@@ -21142,7 +21146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44596</v>
       </c>
@@ -21181,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44597</v>
       </c>
@@ -21220,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44598</v>
       </c>
@@ -21259,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44599</v>
       </c>
@@ -21298,7 +21302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44600</v>
       </c>
@@ -21337,7 +21341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44601</v>
       </c>
@@ -21376,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44602</v>
       </c>
@@ -21415,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44603</v>
       </c>
@@ -21454,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44604</v>
       </c>
@@ -21493,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44605</v>
       </c>
@@ -21532,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44606</v>
       </c>
@@ -21571,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44607</v>
       </c>
@@ -21610,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44608</v>
       </c>
@@ -21649,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44609</v>
       </c>
@@ -21688,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44610</v>
       </c>
@@ -21727,7 +21731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44611</v>
       </c>
@@ -21766,7 +21770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44612</v>
       </c>
@@ -21805,7 +21809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44613</v>
       </c>
@@ -21844,7 +21848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44614</v>
       </c>
@@ -21883,7 +21887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44615</v>
       </c>
@@ -21922,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44616</v>
       </c>
@@ -21961,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44617</v>
       </c>
@@ -22000,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44618</v>
       </c>
@@ -22039,7 +22043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44619</v>
       </c>
@@ -22078,7 +22082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44620</v>
       </c>
@@ -22117,7 +22121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -22226,9 +22230,9 @@
       <selection sqref="A1:U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>95</v>
       </c>
@@ -22253,7 +22257,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -22269,7 +22273,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -22304,7 +22308,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -22327,7 +22331,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -22350,7 +22354,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -22413,7 +22417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44621</v>
       </c>
@@ -22449,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44622</v>
       </c>
@@ -22485,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44623</v>
       </c>
@@ -22521,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44624</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44625</v>
       </c>
@@ -22594,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44626</v>
       </c>
@@ -22631,7 +22635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44627</v>
       </c>
@@ -22667,7 +22671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44628</v>
       </c>
@@ -22703,7 +22707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44629</v>
       </c>
@@ -22739,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44630</v>
       </c>
@@ -22775,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44631</v>
       </c>
@@ -22811,7 +22815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44632</v>
       </c>
@@ -22848,7 +22852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44633</v>
       </c>
@@ -22885,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44634</v>
       </c>
@@ -22921,7 +22925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44635</v>
       </c>
@@ -22957,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44636</v>
       </c>
@@ -22993,7 +22997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44637</v>
       </c>
@@ -23029,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44638</v>
       </c>
@@ -23065,7 +23069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44639</v>
       </c>
@@ -23102,7 +23106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44640</v>
       </c>
@@ -23139,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44641</v>
       </c>
@@ -23175,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44642</v>
       </c>
@@ -23211,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44643</v>
       </c>
@@ -23247,7 +23251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44644</v>
       </c>
@@ -23283,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44645</v>
       </c>
@@ -23319,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44646</v>
       </c>
@@ -23356,7 +23360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44647</v>
       </c>
@@ -23393,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44648</v>
       </c>
@@ -23420,7 +23424,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44649</v>
       </c>
@@ -23447,7 +23451,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44650</v>
       </c>
@@ -23474,7 +23478,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44651</v>
       </c>
@@ -23510,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -23619,9 +23623,9 @@
       <selection activeCell="R7" sqref="A1:U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>96</v>
       </c>
@@ -23646,7 +23650,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -23662,7 +23666,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -23697,7 +23701,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -23720,7 +23724,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -23743,7 +23747,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -23806,7 +23810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44652</v>
       </c>
@@ -23842,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44653</v>
       </c>
@@ -23878,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44654</v>
       </c>
@@ -23914,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44655</v>
       </c>
@@ -23950,7 +23954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44656</v>
       </c>
@@ -23986,7 +23990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44657</v>
       </c>
@@ -24022,7 +24026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44658</v>
       </c>
@@ -24058,7 +24062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44659</v>
       </c>
@@ -24094,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44660</v>
       </c>
@@ -24130,7 +24134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44661</v>
       </c>
@@ -24166,7 +24170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44662</v>
       </c>
@@ -24202,7 +24206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44663</v>
       </c>
@@ -24238,7 +24242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44664</v>
       </c>
@@ -24274,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44665</v>
       </c>
@@ -24310,7 +24314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44666</v>
       </c>
@@ -24346,7 +24350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44667</v>
       </c>
@@ -24382,7 +24386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44668</v>
       </c>
@@ -24418,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44669</v>
       </c>
@@ -24454,7 +24458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44670</v>
       </c>
@@ -24490,7 +24494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44671</v>
       </c>
@@ -24526,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44672</v>
       </c>
@@ -24562,7 +24566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44673</v>
       </c>
@@ -24598,7 +24602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44674</v>
       </c>
@@ -24634,7 +24638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44675</v>
       </c>
@@ -24670,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44676</v>
       </c>
@@ -24706,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44677</v>
       </c>
@@ -24742,7 +24746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44678</v>
       </c>
@@ -24778,7 +24782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44679</v>
       </c>
@@ -24805,7 +24809,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44680</v>
       </c>
@@ -24832,7 +24836,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44681</v>
       </c>
@@ -24859,7 +24863,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -24968,9 +24972,9 @@
       <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>97</v>
       </c>
@@ -24995,7 +24999,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -25011,7 +25015,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -25046,7 +25050,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -25069,7 +25073,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -25092,7 +25096,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -25155,7 +25159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44682</v>
       </c>
@@ -25189,7 +25193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44683</v>
       </c>
@@ -25222,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44684</v>
       </c>
@@ -25255,7 +25259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44685</v>
       </c>
@@ -25288,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44686</v>
       </c>
@@ -25321,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44687</v>
       </c>
@@ -25354,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44688</v>
       </c>
@@ -25388,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44689</v>
       </c>
@@ -25422,7 +25426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44690</v>
       </c>
@@ -25455,7 +25459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44691</v>
       </c>
@@ -25488,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44692</v>
       </c>
@@ -25521,7 +25525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44693</v>
       </c>
@@ -25554,7 +25558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44694</v>
       </c>
@@ -25587,7 +25591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44695</v>
       </c>
@@ -25621,7 +25625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44696</v>
       </c>
@@ -25655,7 +25659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44697</v>
       </c>
@@ -25688,7 +25692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44698</v>
       </c>
@@ -25721,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44699</v>
       </c>
@@ -25754,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44700</v>
       </c>
@@ -25787,7 +25791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44701</v>
       </c>
@@ -25820,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44702</v>
       </c>
@@ -25854,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44703</v>
       </c>
@@ -25888,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44704</v>
       </c>
@@ -25921,7 +25925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44705</v>
       </c>
@@ -25954,7 +25958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44706</v>
       </c>
@@ -25987,7 +25991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44707</v>
       </c>
@@ -26020,7 +26024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44708</v>
       </c>
@@ -26053,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44709</v>
       </c>
@@ -26080,7 +26084,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44710</v>
       </c>
@@ -26107,7 +26111,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44711</v>
       </c>
@@ -26134,7 +26138,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44712</v>
       </c>
@@ -26161,7 +26165,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -26270,9 +26274,9 @@
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>98</v>
       </c>
@@ -26297,7 +26301,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
@@ -26313,7 +26317,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -26348,7 +26352,7 @@
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -26371,7 +26375,7 @@
       <c r="T4" s="46"/>
       <c r="U4" s="47"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -26394,7 +26398,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="47"/>
     </row>
-    <row r="6" spans="1:21" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -26457,7 +26461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44713</v>
       </c>
@@ -26490,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44714</v>
       </c>
@@ -26523,7 +26527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44715</v>
       </c>
@@ -26556,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44716</v>
       </c>
@@ -26589,7 +26593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44717</v>
       </c>
@@ -26622,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44718</v>
       </c>
@@ -26655,7 +26659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44719</v>
       </c>
@@ -26688,7 +26692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44720</v>
       </c>
@@ -26721,7 +26725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44721</v>
       </c>
@@ -26754,7 +26758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44722</v>
       </c>
@@ -26787,7 +26791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44723</v>
       </c>
@@ -26820,7 +26824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44724</v>
       </c>
@@ -26853,7 +26857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44725</v>
       </c>
@@ -26886,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44726</v>
       </c>
@@ -26919,7 +26923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44727</v>
       </c>
@@ -26952,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44728</v>
       </c>
@@ -26985,7 +26989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44729</v>
       </c>
@@ -27018,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44730</v>
       </c>
@@ -27051,7 +27055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44731</v>
       </c>
@@ -27084,7 +27088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44732</v>
       </c>
@@ -27117,7 +27121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44733</v>
       </c>
@@ -27150,7 +27154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44734</v>
       </c>
@@ -27183,7 +27187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44735</v>
       </c>
@@ -27216,7 +27220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44736</v>
       </c>
@@ -27249,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44737</v>
       </c>
@@ -27282,7 +27286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44738</v>
       </c>
@@ -27315,7 +27319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>44739</v>
       </c>
@@ -27348,7 +27352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44740</v>
       </c>
@@ -27375,7 +27379,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>44741</v>
       </c>
@@ -27402,7 +27406,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>44742</v>
       </c>
@@ -27429,7 +27433,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="14"/>
       <c r="C37" s="2"/>
@@ -27452,7 +27456,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7430,7 +7430,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8003,7 +8003,9 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="36">
+        <v>0</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="8">
         <f t="shared" si="0"/>
@@ -8034,7 +8036,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="36">
+        <v>0</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="8">
         <f t="shared" si="0"/>
@@ -8065,7 +8069,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="36">
+        <v>10</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="8">
         <f t="shared" si="0"/>
@@ -8624,7 +8630,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8660,7 +8666,7 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C378" sqref="C378"/>
+      <selection activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15837,10 +15843,12 @@
         <f t="shared" si="24"/>
         <v>67973</v>
       </c>
-      <c r="C378" s="36"/>
+      <c r="C378" s="36">
+        <v>67973</v>
+      </c>
       <c r="D378" s="36">
         <f t="shared" si="23"/>
-        <v>-67973</v>
+        <v>0</v>
       </c>
       <c r="E378" s="18" t="s">
         <v>57</v>
@@ -15852,9 +15860,11 @@
       </c>
       <c r="B379" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C379" s="36"/>
+        <v>67973</v>
+      </c>
+      <c r="C379" s="36">
+        <v>67973</v>
+      </c>
       <c r="D379" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -15869,12 +15879,14 @@
       </c>
       <c r="B380" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C380" s="36"/>
+        <v>67973</v>
+      </c>
+      <c r="C380" s="36">
+        <v>67983</v>
+      </c>
       <c r="D380" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E380" s="34" t="s">
         <v>52</v>
@@ -15886,12 +15898,12 @@
       </c>
       <c r="B381" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67983</v>
       </c>
       <c r="C381" s="36"/>
       <c r="D381" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-67983</v>
       </c>
       <c r="E381" s="36" t="s">
         <v>54</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7430,7 +7430,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8102,7 +8102,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="36">
+        <v>27</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="8">
         <f t="shared" si="0"/>
@@ -8630,7 +8632,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8665,8 +8667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C380" sqref="C380"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15900,10 +15902,12 @@
         <f t="shared" si="24"/>
         <v>67983</v>
       </c>
-      <c r="C381" s="36"/>
+      <c r="C381" s="36">
+        <v>68010</v>
+      </c>
       <c r="D381" s="36">
         <f t="shared" si="23"/>
-        <v>-67983</v>
+        <v>27</v>
       </c>
       <c r="E381" s="36" t="s">
         <v>54</v>
@@ -15915,12 +15919,12 @@
       </c>
       <c r="B382" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68010</v>
       </c>
       <c r="C382" s="36"/>
       <c r="D382" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68010</v>
       </c>
       <c r="E382" s="36" t="s">
         <v>55</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7430,7 +7430,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8135,7 +8135,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="36">
+        <v>15</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="8">
         <f t="shared" si="0"/>
@@ -8166,7 +8168,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="36">
+        <v>21</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="8">
         <f t="shared" si="0"/>
@@ -8197,7 +8201,9 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="36">
+        <v>20</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="8">
         <f t="shared" si="0"/>
@@ -8632,7 +8638,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8667,8 +8673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C382" sqref="C382"/>
+    <sheetView topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15921,10 +15927,12 @@
         <f t="shared" si="24"/>
         <v>68010</v>
       </c>
-      <c r="C382" s="36"/>
+      <c r="C382" s="36">
+        <v>68025</v>
+      </c>
       <c r="D382" s="36">
         <f t="shared" si="23"/>
-        <v>-68010</v>
+        <v>15</v>
       </c>
       <c r="E382" s="36" t="s">
         <v>55</v>
@@ -15936,12 +15944,14 @@
       </c>
       <c r="B383" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C383" s="36"/>
+        <v>68025</v>
+      </c>
+      <c r="C383" s="36">
+        <v>68046</v>
+      </c>
       <c r="D383" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E383" s="34" t="s">
         <v>53</v>
@@ -15953,12 +15963,14 @@
       </c>
       <c r="B384" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C384" s="36"/>
+        <v>68046</v>
+      </c>
+      <c r="C384" s="36">
+        <v>68066</v>
+      </c>
       <c r="D384" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E384" s="34" t="s">
         <v>56</v>
@@ -15970,12 +15982,12 @@
       </c>
       <c r="B385" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68066</v>
       </c>
       <c r="C385" s="36"/>
       <c r="D385" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68066</v>
       </c>
       <c r="E385" s="18" t="s">
         <v>57</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7430,7 +7430,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8234,7 +8234,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="36">
+        <v>0</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="8">
         <f t="shared" si="0"/>
@@ -8265,7 +8267,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="36">
+        <v>0</v>
+      </c>
       <c r="S26" s="6"/>
       <c r="T26" s="8">
         <f t="shared" si="0"/>
@@ -8296,7 +8300,9 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="36">
+        <v>74</v>
+      </c>
       <c r="S27" s="6"/>
       <c r="T27" s="8">
         <f t="shared" si="0"/>
@@ -8638,7 +8644,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8674,7 +8680,7 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15984,10 +15990,12 @@
         <f t="shared" si="24"/>
         <v>68066</v>
       </c>
-      <c r="C385" s="36"/>
+      <c r="C385" s="36">
+        <v>68066</v>
+      </c>
       <c r="D385" s="36">
         <f t="shared" si="23"/>
-        <v>-68066</v>
+        <v>0</v>
       </c>
       <c r="E385" s="18" t="s">
         <v>57</v>
@@ -15999,9 +16007,11 @@
       </c>
       <c r="B386" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C386" s="36"/>
+        <v>68066</v>
+      </c>
+      <c r="C386" s="36">
+        <v>68066</v>
+      </c>
       <c r="D386" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -16016,12 +16026,14 @@
       </c>
       <c r="B387" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C387" s="36"/>
+        <v>68066</v>
+      </c>
+      <c r="C387" s="36">
+        <v>68140</v>
+      </c>
       <c r="D387" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E387" s="34" t="s">
         <v>52</v>
@@ -16033,12 +16045,12 @@
       </c>
       <c r="B388" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68140</v>
       </c>
       <c r="C388" s="36"/>
       <c r="D388" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68140</v>
       </c>
       <c r="E388" s="36" t="s">
         <v>54</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7429,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8333,7 +8333,9 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="36">
+        <v>43</v>
+      </c>
       <c r="S28" s="6"/>
       <c r="T28" s="8">
         <f t="shared" si="0"/>
@@ -8644,7 +8646,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8680,7 +8682,7 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C388" sqref="C388"/>
+      <selection activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16047,10 +16049,12 @@
         <f t="shared" si="24"/>
         <v>68140</v>
       </c>
-      <c r="C388" s="36"/>
+      <c r="C388" s="36">
+        <v>68183</v>
+      </c>
       <c r="D388" s="36">
         <f t="shared" si="23"/>
-        <v>-68140</v>
+        <v>43</v>
       </c>
       <c r="E388" s="36" t="s">
         <v>54</v>
@@ -16062,12 +16066,12 @@
       </c>
       <c r="B389" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68183</v>
       </c>
       <c r="C389" s="36"/>
       <c r="D389" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68183</v>
       </c>
       <c r="E389" s="36" t="s">
         <v>55</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -7430,7 +7430,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8366,7 +8366,9 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="36"/>
+      <c r="R29" s="36">
+        <v>15</v>
+      </c>
       <c r="S29" s="6"/>
       <c r="T29" s="8">
         <f t="shared" si="0"/>
@@ -8397,7 +8399,9 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="36"/>
+      <c r="R30" s="36">
+        <v>10</v>
+      </c>
       <c r="S30" s="6"/>
       <c r="T30" s="8">
         <f t="shared" si="0"/>
@@ -8428,7 +8432,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="36"/>
+      <c r="R31" s="36">
+        <v>11</v>
+      </c>
       <c r="S31" s="6"/>
       <c r="T31" s="8">
         <f t="shared" si="0"/>
@@ -8459,7 +8465,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="36">
+        <v>0</v>
+      </c>
       <c r="S32" s="6"/>
       <c r="T32" s="8">
         <f t="shared" si="0"/>
@@ -8490,7 +8498,9 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="36">
+        <v>0</v>
+      </c>
       <c r="S33" s="6"/>
       <c r="T33" s="8">
         <f t="shared" si="0"/>
@@ -8521,7 +8531,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="36"/>
+      <c r="R34" s="36">
+        <v>90</v>
+      </c>
       <c r="S34" s="6"/>
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
@@ -8646,7 +8658,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>548</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8679,10 +8691,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:F405"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C389" sqref="C389"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="G394" sqref="G394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15984,7 +15996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="24">
         <v>44884</v>
       </c>
@@ -16003,7 +16015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="24">
         <v>44885</v>
       </c>
@@ -16022,7 +16034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="24">
         <v>44886</v>
       </c>
@@ -16041,7 +16053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="24">
         <v>44887</v>
       </c>
@@ -16060,7 +16072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="24">
         <v>44888</v>
       </c>
@@ -16068,58 +16080,70 @@
         <f t="shared" si="24"/>
         <v>68183</v>
       </c>
-      <c r="C389" s="36"/>
+      <c r="C389" s="36">
+        <v>68198</v>
+      </c>
       <c r="D389" s="36">
         <f t="shared" si="23"/>
-        <v>-68183</v>
+        <v>15</v>
       </c>
       <c r="E389" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="24">
         <v>44889</v>
       </c>
       <c r="B390" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C390" s="36"/>
+        <v>68198</v>
+      </c>
+      <c r="C390" s="36">
+        <v>68208</v>
+      </c>
       <c r="D390" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E390" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="24">
         <v>44890</v>
       </c>
       <c r="B391" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C391" s="36"/>
+        <v>68208</v>
+      </c>
+      <c r="C391" s="36">
+        <v>68219</v>
+      </c>
       <c r="D391" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E391" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F391">
+        <f>SUM(D387:D391)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="24">
         <v>44891</v>
       </c>
       <c r="B392" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C392" s="36"/>
+        <v>68219</v>
+      </c>
+      <c r="C392" s="36">
+        <v>68219</v>
+      </c>
       <c r="D392" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -16128,15 +16152,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="24">
         <v>44892</v>
       </c>
       <c r="B393" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C393" s="36"/>
+        <v>68219</v>
+      </c>
+      <c r="C393" s="36">
+        <v>68219</v>
+      </c>
       <c r="D393" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -16145,41 +16171,43 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="24">
         <v>44893</v>
       </c>
       <c r="B394" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C394" s="36"/>
+        <v>68219</v>
+      </c>
+      <c r="C394" s="36">
+        <v>68309</v>
+      </c>
       <c r="D394" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E394" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="24">
         <v>44894</v>
       </c>
       <c r="B395" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68309</v>
       </c>
       <c r="C395" s="36"/>
       <c r="D395" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68309</v>
       </c>
       <c r="E395" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="24">
         <v>44895</v>
       </c>
@@ -16196,7 +16224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="24">
         <v>44896</v>
       </c>
@@ -16213,7 +16241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="24">
         <v>44897</v>
       </c>
@@ -16230,7 +16258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="24">
         <v>44898</v>
       </c>
@@ -16247,7 +16275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="24">
         <v>44899</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Лист13" sheetId="13" r:id="rId12"/>
     <sheet name="Лист14" sheetId="14" r:id="rId13"/>
     <sheet name="Лист15" sheetId="15" r:id="rId14"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId15"/>
+    <sheet name="Лист16" sheetId="16" r:id="rId15"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="105">
   <si>
     <t>Подобове споживання енергоносіїв та води за листопад 2021 р.</t>
   </si>
@@ -401,6 +402,9 @@
   <si>
     <t>Подобове споживання енергоносіїв та води за листопад 2022 р.</t>
   </si>
+  <si>
+    <t>Подобове споживання енергоносіїв та води за грудень 2022 р.</t>
+  </si>
 </sst>
 </file>
 
@@ -754,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -836,6 +840,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1333,7 +1340,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1376,7 +1383,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1424,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1465,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1501,7 +1508,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1549,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +1590,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1626,7 +1633,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1674,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1708,7 +1715,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1751,7 +1758,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1799,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1840,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1969,7 +1976,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2110,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
@@ -2260,129 +2267,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -3555,129 +3562,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -4850,129 +4857,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -6141,129 +6148,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -7429,136 +7436,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R37" sqref="A1:U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -8558,7 +8565,9 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="36"/>
+      <c r="R35" s="36">
+        <v>36</v>
+      </c>
       <c r="S35" s="6"/>
       <c r="T35" s="8"/>
       <c r="U35" s="6"/>
@@ -8583,7 +8592,9 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="36">
+        <v>35</v>
+      </c>
       <c r="S36" s="6"/>
       <c r="T36" s="8"/>
       <c r="U36" s="6"/>
@@ -8658,7 +8669,7 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="1"/>
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="1"/>
@@ -8691,10 +8702,1247 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
+    </row>
+    <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52"/>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>44896</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="38">
+        <v>33</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <f>D7+H7+L7+P7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f>E7+I7+M7+Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>44897</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="38">
+        <v>42</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="8">
+        <f t="shared" ref="T8:U33" si="0">D8+H8+L8+P8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>44898</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>44899</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>44900</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>44901</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>44902</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>44903</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>44904</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>44905</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>44906</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>44907</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>44908</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>44909</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>44910</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>44911</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>44912</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>44913</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>44914</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>44915</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>44916</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>44917</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>44918</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>44919</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>44920</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>44921</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>44922</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>44923</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>44924</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>44925</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>44926</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" ref="B38:U38" si="1">SUM(B7:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="17">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:I5"/>
+    <mergeCell ref="J3:M5"/>
+    <mergeCell ref="N3:Q5"/>
+    <mergeCell ref="R3:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F405"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="G394" sqref="G394"/>
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16198,10 +17446,12 @@
         <f t="shared" si="24"/>
         <v>68309</v>
       </c>
-      <c r="C395" s="36"/>
+      <c r="C395" s="36">
+        <v>68345</v>
+      </c>
       <c r="D395" s="36">
         <f t="shared" si="23"/>
-        <v>-68309</v>
+        <v>36</v>
       </c>
       <c r="E395" s="36" t="s">
         <v>54</v>
@@ -16213,12 +17463,14 @@
       </c>
       <c r="B396" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C396" s="36"/>
+        <v>68345</v>
+      </c>
+      <c r="C396" s="36">
+        <v>68380</v>
+      </c>
       <c r="D396" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E396" s="36" t="s">
         <v>55</v>
@@ -16230,12 +17482,14 @@
       </c>
       <c r="B397" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C397" s="36"/>
+        <v>68380</v>
+      </c>
+      <c r="C397" s="36">
+        <v>68413</v>
+      </c>
       <c r="D397" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E397" s="34" t="s">
         <v>53</v>
@@ -16247,12 +17501,14 @@
       </c>
       <c r="B398" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C398" s="36"/>
+        <v>68413</v>
+      </c>
+      <c r="C398" s="36">
+        <v>68455</v>
+      </c>
       <c r="D398" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E398" s="34" t="s">
         <v>56</v>
@@ -16264,12 +17520,12 @@
       </c>
       <c r="B399" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68455</v>
       </c>
       <c r="C399" s="36"/>
       <c r="D399" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68455</v>
       </c>
       <c r="E399" s="18" t="s">
         <v>57</v>
@@ -16409,129 +17665,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -17910,129 +19166,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -19415,129 +20671,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -20917,129 +22173,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -22305,129 +23561,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -23698,129 +24954,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -25047,129 +26303,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -26349,129 +27605,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="42" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -8705,7 +8705,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8981,7 +8981,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="38"/>
+      <c r="R9" s="38">
+        <v>0</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="8">
         <f t="shared" si="0"/>
@@ -9012,7 +9014,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="38"/>
+      <c r="R10" s="38">
+        <v>0</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="8">
         <f t="shared" si="0"/>
@@ -9043,7 +9047,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="38"/>
+      <c r="R11" s="38">
+        <v>87</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="8">
         <f t="shared" si="0"/>
@@ -9074,7 +9080,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="38"/>
+      <c r="R12" s="38">
+        <v>74</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="8">
         <f t="shared" si="0"/>
@@ -9906,7 +9914,7 @@
       </c>
       <c r="R38" s="17">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="S38" s="6">
         <f t="shared" si="1"/>
@@ -9942,7 +9950,7 @@
   <dimension ref="A1:F405"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398"/>
+      <selection activeCell="C402" sqref="C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17522,10 +17530,12 @@
         <f t="shared" si="24"/>
         <v>68455</v>
       </c>
-      <c r="C399" s="36"/>
+      <c r="C399" s="36">
+        <v>68455</v>
+      </c>
       <c r="D399" s="36">
         <f t="shared" si="23"/>
-        <v>-68455</v>
+        <v>0</v>
       </c>
       <c r="E399" s="18" t="s">
         <v>57</v>
@@ -17537,9 +17547,11 @@
       </c>
       <c r="B400" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C400" s="36"/>
+        <v>68455</v>
+      </c>
+      <c r="C400" s="36">
+        <v>68455</v>
+      </c>
       <c r="D400" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -17554,12 +17566,14 @@
       </c>
       <c r="B401" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C401" s="36"/>
+        <v>68455</v>
+      </c>
+      <c r="C401" s="36">
+        <v>68542</v>
+      </c>
       <c r="D401" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E401" s="34" t="s">
         <v>52</v>
@@ -17571,12 +17585,14 @@
       </c>
       <c r="B402" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C402" s="36"/>
+        <v>68542</v>
+      </c>
+      <c r="C402" s="36">
+        <v>68616</v>
+      </c>
       <c r="D402" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E402" s="36" t="s">
         <v>54</v>
@@ -17588,12 +17604,12 @@
       </c>
       <c r="B403" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68616</v>
       </c>
       <c r="C403" s="36"/>
       <c r="D403" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-68616</v>
       </c>
       <c r="E403" s="36" t="s">
         <v>55</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -8705,7 +8705,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9081,7 +9081,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="38">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="8">
@@ -9113,7 +9113,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="38"/>
+      <c r="R13" s="38">
+        <v>42</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="8">
         <f t="shared" si="0"/>
@@ -9144,7 +9146,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="38"/>
+      <c r="R14" s="38">
+        <v>54</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="8">
         <f t="shared" si="0"/>
@@ -9175,7 +9179,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="38"/>
+      <c r="R15" s="38">
+        <v>45</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="8">
         <f t="shared" si="0"/>
@@ -9914,7 +9920,7 @@
       </c>
       <c r="R38" s="17">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="S38" s="6">
         <f t="shared" si="1"/>
@@ -9949,8 +9955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F405"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="C402" sqref="C402"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="F405" sqref="F405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17560,7 +17566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="24">
         <v>44900</v>
       </c>
@@ -17579,7 +17585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="24">
         <v>44901</v>
       </c>
@@ -17588,65 +17594,75 @@
         <v>68542</v>
       </c>
       <c r="C402" s="36">
-        <v>68616</v>
+        <v>68605</v>
       </c>
       <c r="D402" s="36">
         <f t="shared" si="23"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E402" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="24">
         <v>44902</v>
       </c>
       <c r="B403" s="37">
         <f t="shared" si="24"/>
-        <v>68616</v>
-      </c>
-      <c r="C403" s="36"/>
+        <v>68605</v>
+      </c>
+      <c r="C403" s="36">
+        <v>68647</v>
+      </c>
       <c r="D403" s="36">
         <f t="shared" si="23"/>
-        <v>-68616</v>
+        <v>42</v>
       </c>
       <c r="E403" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="24">
         <v>44903</v>
       </c>
       <c r="B404" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C404" s="36"/>
+        <v>68647</v>
+      </c>
+      <c r="C404" s="36">
+        <v>68701</v>
+      </c>
       <c r="D404" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E404" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="24">
         <v>44904</v>
       </c>
       <c r="B405" s="37">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="C405" s="36"/>
+        <v>68701</v>
+      </c>
+      <c r="C405" s="36">
+        <v>68746</v>
+      </c>
       <c r="D405" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E405" s="34" t="s">
         <v>56</v>
+      </c>
+      <c r="F405">
+        <f>SUM(D401:D405)</f>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="105">
   <si>
     <t>Подобове споживання енергоносіїв та води за листопад 2021 р.</t>
   </si>
@@ -758,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -840,6 +840,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1340,7 +1343,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1383,7 +1386,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1427,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1468,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1552,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1590,7 +1593,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1633,7 +1636,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1718,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1799,7 +1802,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +1843,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1976,7 +1979,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2113,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
@@ -2267,129 +2270,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -3562,129 +3565,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -4857,129 +4860,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -6148,129 +6151,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -7443,129 +7446,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -8705,135 +8708,135 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +9215,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="38"/>
+      <c r="R16" s="38">
+        <v>0</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="8">
         <f t="shared" si="0"/>
@@ -9243,7 +9248,9 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="38"/>
+      <c r="R17" s="38">
+        <v>0</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="8">
         <f t="shared" si="0"/>
@@ -9274,7 +9281,9 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="38"/>
+      <c r="R18" s="38">
+        <v>52</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="8">
         <f t="shared" si="0"/>
@@ -9305,7 +9314,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="38"/>
+      <c r="R19" s="38">
+        <v>47</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="8">
         <f t="shared" si="0"/>
@@ -9920,7 +9931,7 @@
       </c>
       <c r="R38" s="17">
         <f t="shared" si="1"/>
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="S38" s="6">
         <f t="shared" si="1"/>
@@ -9953,10 +9964,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F405"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="F405" sqref="F405"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17663,6 +17674,2020 @@
       <c r="F405">
         <f>SUM(D401:D405)</f>
         <v>291</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="24">
+        <v>44905</v>
+      </c>
+      <c r="B406" s="39">
+        <f t="shared" ref="B406:B469" si="25">C405</f>
+        <v>68746</v>
+      </c>
+      <c r="C406" s="39">
+        <v>68746</v>
+      </c>
+      <c r="D406" s="39">
+        <f t="shared" ref="D406:D469" si="26">C406-B406</f>
+        <v>0</v>
+      </c>
+      <c r="E406" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="24">
+        <v>44906</v>
+      </c>
+      <c r="B407" s="39">
+        <f t="shared" si="25"/>
+        <v>68746</v>
+      </c>
+      <c r="C407" s="39">
+        <v>68746</v>
+      </c>
+      <c r="D407" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E407" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="24">
+        <v>44907</v>
+      </c>
+      <c r="B408" s="39">
+        <f t="shared" si="25"/>
+        <v>68746</v>
+      </c>
+      <c r="C408" s="39">
+        <v>68798</v>
+      </c>
+      <c r="D408" s="39">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="E408" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="24">
+        <v>44908</v>
+      </c>
+      <c r="B409" s="39">
+        <f t="shared" si="25"/>
+        <v>68798</v>
+      </c>
+      <c r="C409" s="39">
+        <v>68845</v>
+      </c>
+      <c r="D409" s="39">
+        <f t="shared" si="26"/>
+        <v>47</v>
+      </c>
+      <c r="E409" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="24">
+        <v>44909</v>
+      </c>
+      <c r="B410" s="39">
+        <f t="shared" si="25"/>
+        <v>68845</v>
+      </c>
+      <c r="C410" s="39"/>
+      <c r="D410" s="39">
+        <f t="shared" si="26"/>
+        <v>-68845</v>
+      </c>
+      <c r="E410" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="24">
+        <v>44910</v>
+      </c>
+      <c r="B411" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C411" s="39"/>
+      <c r="D411" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E411" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="24">
+        <v>44911</v>
+      </c>
+      <c r="B412" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C412" s="39"/>
+      <c r="D412" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E412" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="24">
+        <v>44912</v>
+      </c>
+      <c r="B413" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C413" s="39"/>
+      <c r="D413" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E413" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="24">
+        <v>44913</v>
+      </c>
+      <c r="B414" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C414" s="39"/>
+      <c r="D414" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E414" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="24">
+        <v>44914</v>
+      </c>
+      <c r="B415" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C415" s="39"/>
+      <c r="D415" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E415" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="24">
+        <v>44915</v>
+      </c>
+      <c r="B416" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C416" s="39"/>
+      <c r="D416" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E416" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="24">
+        <v>44916</v>
+      </c>
+      <c r="B417" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C417" s="39"/>
+      <c r="D417" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E417" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="24">
+        <v>44917</v>
+      </c>
+      <c r="B418" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C418" s="39"/>
+      <c r="D418" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E418" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="24">
+        <v>44918</v>
+      </c>
+      <c r="B419" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C419" s="39"/>
+      <c r="D419" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E419" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="24">
+        <v>44919</v>
+      </c>
+      <c r="B420" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C420" s="39"/>
+      <c r="D420" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E420" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="24">
+        <v>44920</v>
+      </c>
+      <c r="B421" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C421" s="39"/>
+      <c r="D421" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E421" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="24">
+        <v>44921</v>
+      </c>
+      <c r="B422" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C422" s="39"/>
+      <c r="D422" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E422" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="24">
+        <v>44922</v>
+      </c>
+      <c r="B423" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C423" s="39"/>
+      <c r="D423" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E423" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="24">
+        <v>44923</v>
+      </c>
+      <c r="B424" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C424" s="39"/>
+      <c r="D424" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E424" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="24">
+        <v>44924</v>
+      </c>
+      <c r="B425" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C425" s="39"/>
+      <c r="D425" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E425" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="24">
+        <v>44925</v>
+      </c>
+      <c r="B426" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C426" s="39"/>
+      <c r="D426" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E426" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="24">
+        <v>44926</v>
+      </c>
+      <c r="B427" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C427" s="39"/>
+      <c r="D427" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E427" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="24">
+        <v>44927</v>
+      </c>
+      <c r="B428" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C428" s="39"/>
+      <c r="D428" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E428" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="24">
+        <v>44928</v>
+      </c>
+      <c r="B429" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C429" s="39"/>
+      <c r="D429" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E429" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="24">
+        <v>44929</v>
+      </c>
+      <c r="B430" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C430" s="39"/>
+      <c r="D430" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E430" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="24">
+        <v>44930</v>
+      </c>
+      <c r="B431" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C431" s="39"/>
+      <c r="D431" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E431" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="24">
+        <v>44931</v>
+      </c>
+      <c r="B432" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C432" s="39"/>
+      <c r="D432" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E432" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="24">
+        <v>44932</v>
+      </c>
+      <c r="B433" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C433" s="39"/>
+      <c r="D433" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E433" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="24">
+        <v>44933</v>
+      </c>
+      <c r="B434" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C434" s="39"/>
+      <c r="D434" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E434" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="24">
+        <v>44934</v>
+      </c>
+      <c r="B435" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C435" s="39"/>
+      <c r="D435" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E435" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="24">
+        <v>44935</v>
+      </c>
+      <c r="B436" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C436" s="39"/>
+      <c r="D436" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E436" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="24">
+        <v>44936</v>
+      </c>
+      <c r="B437" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C437" s="39"/>
+      <c r="D437" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E437" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="24">
+        <v>44937</v>
+      </c>
+      <c r="B438" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C438" s="39"/>
+      <c r="D438" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E438" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="24">
+        <v>44938</v>
+      </c>
+      <c r="B439" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C439" s="39"/>
+      <c r="D439" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E439" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="24">
+        <v>44939</v>
+      </c>
+      <c r="B440" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C440" s="39"/>
+      <c r="D440" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E440" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="24">
+        <v>44940</v>
+      </c>
+      <c r="B441" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C441" s="39"/>
+      <c r="D441" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E441" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="24">
+        <v>44941</v>
+      </c>
+      <c r="B442" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C442" s="39"/>
+      <c r="D442" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E442" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="24">
+        <v>44942</v>
+      </c>
+      <c r="B443" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C443" s="39"/>
+      <c r="D443" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E443" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="24">
+        <v>44943</v>
+      </c>
+      <c r="B444" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C444" s="39"/>
+      <c r="D444" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E444" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="24">
+        <v>44944</v>
+      </c>
+      <c r="B445" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C445" s="39"/>
+      <c r="D445" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E445" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="24">
+        <v>44945</v>
+      </c>
+      <c r="B446" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C446" s="39"/>
+      <c r="D446" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E446" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="24">
+        <v>44946</v>
+      </c>
+      <c r="B447" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C447" s="39"/>
+      <c r="D447" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E447" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="24">
+        <v>44947</v>
+      </c>
+      <c r="B448" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C448" s="39"/>
+      <c r="D448" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E448" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="24">
+        <v>44948</v>
+      </c>
+      <c r="B449" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C449" s="39"/>
+      <c r="D449" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E449" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="24">
+        <v>44949</v>
+      </c>
+      <c r="B450" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C450" s="39"/>
+      <c r="D450" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E450" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="24">
+        <v>44950</v>
+      </c>
+      <c r="B451" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C451" s="39"/>
+      <c r="D451" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E451" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="24">
+        <v>44951</v>
+      </c>
+      <c r="B452" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C452" s="39"/>
+      <c r="D452" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E452" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="24">
+        <v>44952</v>
+      </c>
+      <c r="B453" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C453" s="39"/>
+      <c r="D453" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E453" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="24">
+        <v>44953</v>
+      </c>
+      <c r="B454" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C454" s="39"/>
+      <c r="D454" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E454" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="24">
+        <v>44954</v>
+      </c>
+      <c r="B455" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C455" s="39"/>
+      <c r="D455" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E455" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="24">
+        <v>44955</v>
+      </c>
+      <c r="B456" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C456" s="39"/>
+      <c r="D456" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E456" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="24">
+        <v>44956</v>
+      </c>
+      <c r="B457" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C457" s="39"/>
+      <c r="D457" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E457" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="24">
+        <v>44957</v>
+      </c>
+      <c r="B458" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C458" s="39"/>
+      <c r="D458" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E458" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="24">
+        <v>44958</v>
+      </c>
+      <c r="B459" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C459" s="39"/>
+      <c r="D459" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E459" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="24">
+        <v>44959</v>
+      </c>
+      <c r="B460" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C460" s="39"/>
+      <c r="D460" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E460" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="24">
+        <v>44960</v>
+      </c>
+      <c r="B461" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C461" s="39"/>
+      <c r="D461" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E461" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="24">
+        <v>44961</v>
+      </c>
+      <c r="B462" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C462" s="39"/>
+      <c r="D462" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E462" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="24">
+        <v>44962</v>
+      </c>
+      <c r="B463" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C463" s="39"/>
+      <c r="D463" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E463" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="24">
+        <v>44963</v>
+      </c>
+      <c r="B464" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C464" s="39"/>
+      <c r="D464" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E464" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="24">
+        <v>44964</v>
+      </c>
+      <c r="B465" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C465" s="39"/>
+      <c r="D465" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E465" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="24">
+        <v>44965</v>
+      </c>
+      <c r="B466" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C466" s="39"/>
+      <c r="D466" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E466" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="24">
+        <v>44966</v>
+      </c>
+      <c r="B467" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C467" s="39"/>
+      <c r="D467" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E467" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="24">
+        <v>44967</v>
+      </c>
+      <c r="B468" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C468" s="39"/>
+      <c r="D468" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E468" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="24">
+        <v>44968</v>
+      </c>
+      <c r="B469" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C469" s="39"/>
+      <c r="D469" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E469" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="24">
+        <v>44969</v>
+      </c>
+      <c r="B470" s="39">
+        <f t="shared" ref="B470:B523" si="27">C469</f>
+        <v>0</v>
+      </c>
+      <c r="C470" s="39"/>
+      <c r="D470" s="39">
+        <f t="shared" ref="D470:D523" si="28">C470-B470</f>
+        <v>0</v>
+      </c>
+      <c r="E470" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="24">
+        <v>44970</v>
+      </c>
+      <c r="B471" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C471" s="39"/>
+      <c r="D471" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E471" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="24">
+        <v>44971</v>
+      </c>
+      <c r="B472" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C472" s="39"/>
+      <c r="D472" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E472" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="24">
+        <v>44972</v>
+      </c>
+      <c r="B473" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C473" s="39"/>
+      <c r="D473" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E473" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="24">
+        <v>44973</v>
+      </c>
+      <c r="B474" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C474" s="39"/>
+      <c r="D474" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E474" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="24">
+        <v>44974</v>
+      </c>
+      <c r="B475" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C475" s="39"/>
+      <c r="D475" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E475" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="24">
+        <v>44975</v>
+      </c>
+      <c r="B476" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C476" s="39"/>
+      <c r="D476" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E476" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="24">
+        <v>44976</v>
+      </c>
+      <c r="B477" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C477" s="39"/>
+      <c r="D477" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E477" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="24">
+        <v>44977</v>
+      </c>
+      <c r="B478" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C478" s="39"/>
+      <c r="D478" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E478" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="24">
+        <v>44978</v>
+      </c>
+      <c r="B479" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C479" s="39"/>
+      <c r="D479" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E479" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="24">
+        <v>44979</v>
+      </c>
+      <c r="B480" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C480" s="39"/>
+      <c r="D480" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E480" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="24">
+        <v>44980</v>
+      </c>
+      <c r="B481" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C481" s="39"/>
+      <c r="D481" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E481" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="24">
+        <v>44981</v>
+      </c>
+      <c r="B482" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C482" s="39"/>
+      <c r="D482" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E482" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="24">
+        <v>44982</v>
+      </c>
+      <c r="B483" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C483" s="39"/>
+      <c r="D483" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E483" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="24">
+        <v>44983</v>
+      </c>
+      <c r="B484" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C484" s="39"/>
+      <c r="D484" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E484" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="24">
+        <v>44984</v>
+      </c>
+      <c r="B485" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C485" s="39"/>
+      <c r="D485" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E485" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="24">
+        <v>44985</v>
+      </c>
+      <c r="B486" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C486" s="39"/>
+      <c r="D486" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E486" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B487" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C487" s="39"/>
+      <c r="D487" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E487" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="24">
+        <v>44987</v>
+      </c>
+      <c r="B488" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C488" s="39"/>
+      <c r="D488" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E488" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="24">
+        <v>44988</v>
+      </c>
+      <c r="B489" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C489" s="39"/>
+      <c r="D489" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E489" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="24">
+        <v>44989</v>
+      </c>
+      <c r="B490" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C490" s="39"/>
+      <c r="D490" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E490" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="24">
+        <v>44990</v>
+      </c>
+      <c r="B491" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C491" s="39"/>
+      <c r="D491" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E491" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="24">
+        <v>44991</v>
+      </c>
+      <c r="B492" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C492" s="39"/>
+      <c r="D492" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E492" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="24">
+        <v>44992</v>
+      </c>
+      <c r="B493" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C493" s="39"/>
+      <c r="D493" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E493" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="24">
+        <v>44993</v>
+      </c>
+      <c r="B494" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C494" s="39"/>
+      <c r="D494" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E494" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="24">
+        <v>44994</v>
+      </c>
+      <c r="B495" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C495" s="39"/>
+      <c r="D495" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E495" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" s="24">
+        <v>44995</v>
+      </c>
+      <c r="B496" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C496" s="39"/>
+      <c r="D496" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E496" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" s="24">
+        <v>44996</v>
+      </c>
+      <c r="B497" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C497" s="39"/>
+      <c r="D497" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E497" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" s="24">
+        <v>44997</v>
+      </c>
+      <c r="B498" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C498" s="39"/>
+      <c r="D498" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E498" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" s="24">
+        <v>44998</v>
+      </c>
+      <c r="B499" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C499" s="39"/>
+      <c r="D499" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E499" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" s="24">
+        <v>44999</v>
+      </c>
+      <c r="B500" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C500" s="39"/>
+      <c r="D500" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E500" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" s="24">
+        <v>45000</v>
+      </c>
+      <c r="B501" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C501" s="39"/>
+      <c r="D501" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E501" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" s="24">
+        <v>45001</v>
+      </c>
+      <c r="B502" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C502" s="39"/>
+      <c r="D502" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E502" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" s="24">
+        <v>45002</v>
+      </c>
+      <c r="B503" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C503" s="39"/>
+      <c r="D503" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E503" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="24">
+        <v>45003</v>
+      </c>
+      <c r="B504" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C504" s="39"/>
+      <c r="D504" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E504" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="24">
+        <v>45004</v>
+      </c>
+      <c r="B505" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C505" s="39"/>
+      <c r="D505" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E505" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="24">
+        <v>45005</v>
+      </c>
+      <c r="B506" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C506" s="39"/>
+      <c r="D506" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E506" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" s="24">
+        <v>45006</v>
+      </c>
+      <c r="B507" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C507" s="39"/>
+      <c r="D507" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E507" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" s="24">
+        <v>45007</v>
+      </c>
+      <c r="B508" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C508" s="39"/>
+      <c r="D508" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E508" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" s="24">
+        <v>45008</v>
+      </c>
+      <c r="B509" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C509" s="39"/>
+      <c r="D509" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E509" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" s="24">
+        <v>45009</v>
+      </c>
+      <c r="B510" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C510" s="39"/>
+      <c r="D510" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E510" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" s="24">
+        <v>45010</v>
+      </c>
+      <c r="B511" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C511" s="39"/>
+      <c r="D511" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E511" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" s="24">
+        <v>45011</v>
+      </c>
+      <c r="B512" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C512" s="39"/>
+      <c r="D512" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E512" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" s="24">
+        <v>45012</v>
+      </c>
+      <c r="B513" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C513" s="39"/>
+      <c r="D513" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E513" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" s="24">
+        <v>45013</v>
+      </c>
+      <c r="B514" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C514" s="39"/>
+      <c r="D514" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E514" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" s="24">
+        <v>45014</v>
+      </c>
+      <c r="B515" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C515" s="39"/>
+      <c r="D515" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E515" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" s="24">
+        <v>45015</v>
+      </c>
+      <c r="B516" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C516" s="39"/>
+      <c r="D516" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E516" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" s="24">
+        <v>45016</v>
+      </c>
+      <c r="B517" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C517" s="39"/>
+      <c r="D517" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E517" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B518" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C518" s="39"/>
+      <c r="D518" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E518" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" s="24">
+        <v>45018</v>
+      </c>
+      <c r="B519" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C519" s="39"/>
+      <c r="D519" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E519" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" s="24">
+        <v>45019</v>
+      </c>
+      <c r="B520" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C520" s="39"/>
+      <c r="D520" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E520" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" s="24">
+        <v>45020</v>
+      </c>
+      <c r="B521" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C521" s="39"/>
+      <c r="D521" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E521" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" s="24">
+        <v>45021</v>
+      </c>
+      <c r="B522" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C522" s="39"/>
+      <c r="D522" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E522" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" s="24">
+        <v>45022</v>
+      </c>
+      <c r="B523" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="C523" s="39"/>
+      <c r="D523" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E523" s="34" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -17697,129 +19722,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -19198,129 +21223,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -20703,129 +22728,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -22205,129 +24230,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -23593,129 +25618,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -24986,129 +27011,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -26335,129 +28360,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -27637,129 +29662,129 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -8708,10 +8708,13 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="17" width="3.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
@@ -9347,7 +9350,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="38"/>
+      <c r="R20" s="38">
+        <v>39</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="8">
         <f t="shared" si="0"/>
@@ -9378,7 +9383,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="38"/>
+      <c r="R21" s="38">
+        <v>41</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="8">
         <f t="shared" si="0"/>
@@ -9409,7 +9416,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="38"/>
+      <c r="R22" s="38">
+        <v>45</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="8">
         <f t="shared" si="0"/>
@@ -9440,7 +9449,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="38"/>
+      <c r="R23" s="38">
+        <v>0</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="8">
         <f t="shared" si="0"/>
@@ -9471,7 +9482,9 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="38"/>
+      <c r="R24" s="38">
+        <v>0</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="8">
         <f t="shared" si="0"/>
@@ -9502,7 +9515,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="38"/>
+      <c r="R25" s="38">
+        <v>55</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="8">
         <f t="shared" si="0"/>
@@ -9533,7 +9548,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="38"/>
+      <c r="R26" s="38">
+        <v>47</v>
+      </c>
       <c r="S26" s="6"/>
       <c r="T26" s="8">
         <f t="shared" si="0"/>
@@ -9931,7 +9948,7 @@
       </c>
       <c r="R38" s="17">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>692</v>
       </c>
       <c r="S38" s="6">
         <f t="shared" si="1"/>
@@ -9967,7 +9984,7 @@
   <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="C410" sqref="C410"/>
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17269,7 +17286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="24">
         <v>44884</v>
       </c>
@@ -17288,7 +17305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="24">
         <v>44885</v>
       </c>
@@ -17307,7 +17324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="24">
         <v>44886</v>
       </c>
@@ -17326,7 +17343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="24">
         <v>44887</v>
       </c>
@@ -17345,7 +17362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="24">
         <v>44888</v>
       </c>
@@ -17364,7 +17381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="24">
         <v>44889</v>
       </c>
@@ -17383,7 +17400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="24">
         <v>44890</v>
       </c>
@@ -17401,12 +17418,8 @@
       <c r="E391" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F391">
-        <f>SUM(D387:D391)</f>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="24">
         <v>44891</v>
       </c>
@@ -17425,7 +17438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="24">
         <v>44892</v>
       </c>
@@ -17444,7 +17457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="24">
         <v>44893</v>
       </c>
@@ -17463,7 +17476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="24">
         <v>44894</v>
       </c>
@@ -17482,7 +17495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="24">
         <v>44895</v>
       </c>
@@ -17501,7 +17514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="24">
         <v>44896</v>
       </c>
@@ -17520,7 +17533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="24">
         <v>44897</v>
       </c>
@@ -17539,7 +17552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="24">
         <v>44898</v>
       </c>
@@ -17558,7 +17571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="24">
         <v>44899</v>
       </c>
@@ -17671,10 +17684,6 @@
       <c r="E405" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F405">
-        <f>SUM(D401:D405)</f>
-        <v>291</v>
-      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="24">
@@ -17760,10 +17769,12 @@
         <f t="shared" si="25"/>
         <v>68845</v>
       </c>
-      <c r="C410" s="39"/>
+      <c r="C410" s="39">
+        <v>68884</v>
+      </c>
       <c r="D410" s="39">
         <f t="shared" si="26"/>
-        <v>-68845</v>
+        <v>39</v>
       </c>
       <c r="E410" s="39" t="s">
         <v>55</v>
@@ -17775,12 +17786,14 @@
       </c>
       <c r="B411" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C411" s="39"/>
+        <v>68884</v>
+      </c>
+      <c r="C411" s="39">
+        <v>68925</v>
+      </c>
       <c r="D411" s="39">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E411" s="34" t="s">
         <v>53</v>
@@ -17792,12 +17805,14 @@
       </c>
       <c r="B412" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C412" s="39"/>
+        <v>68925</v>
+      </c>
+      <c r="C412" s="39">
+        <v>68970</v>
+      </c>
       <c r="D412" s="39">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E412" s="34" t="s">
         <v>56</v>
@@ -17809,9 +17824,11 @@
       </c>
       <c r="B413" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C413" s="39"/>
+        <v>68970</v>
+      </c>
+      <c r="C413" s="39">
+        <v>68970</v>
+      </c>
       <c r="D413" s="39">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -17826,15 +17843,21 @@
       </c>
       <c r="B414" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C414" s="39"/>
+        <v>68970</v>
+      </c>
+      <c r="C414" s="39">
+        <v>68970</v>
+      </c>
       <c r="D414" s="39">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E414" s="18" t="s">
         <v>58</v>
+      </c>
+      <c r="F414">
+        <f>SUM(D408:D414)</f>
+        <v>224</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -17843,12 +17866,14 @@
       </c>
       <c r="B415" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C415" s="39"/>
+        <v>68970</v>
+      </c>
+      <c r="C415" s="39">
+        <v>69025</v>
+      </c>
       <c r="D415" s="39">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E415" s="34" t="s">
         <v>52</v>
@@ -17860,12 +17885,14 @@
       </c>
       <c r="B416" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C416" s="39"/>
+        <v>69025</v>
+      </c>
+      <c r="C416" s="39">
+        <v>69072</v>
+      </c>
       <c r="D416" s="39">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E416" s="39" t="s">
         <v>54</v>
@@ -17877,12 +17904,12 @@
       </c>
       <c r="B417" s="39">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>69072</v>
       </c>
       <c r="C417" s="39"/>
       <c r="D417" s="39">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-69072</v>
       </c>
       <c r="E417" s="39" t="s">
         <v>55</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="11.21" sheetId="2" r:id="rId1"/>
@@ -7715,8 +7715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>44922</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>44923</v>
       </c>
@@ -8824,12 +8824,14 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="34"/>
+      <c r="R34" s="34">
+        <v>56</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="4"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>44924</v>
       </c>
@@ -8849,12 +8851,14 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="34">
+        <v>24</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="4"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>44925</v>
       </c>
@@ -8874,12 +8878,14 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="34"/>
+      <c r="R36" s="34">
+        <v>42</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="4"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>44926</v>
       </c>
@@ -8899,12 +8905,18 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="34"/>
+      <c r="R37" s="34">
+        <v>0</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="4"/>
       <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <f>SUM(R32:R37)</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -8974,7 +8986,7 @@
       </c>
       <c r="R38" s="13">
         <f t="shared" si="1"/>
-        <v>998</v>
+        <v>1120</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="1"/>
@@ -9009,8 +9021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9205,7 +9217,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="3"/>
@@ -9223,7 +9235,9 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="35"/>
+      <c r="R7" s="35">
+        <v>0</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4">
         <f>D7+H7+L7+P7</f>
@@ -9236,7 +9250,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>44897</v>
+        <v>44928</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1"/>
@@ -9254,7 +9268,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="35"/>
+      <c r="R8" s="35">
+        <v>123</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="4">
         <f t="shared" ref="T8:U33" si="0">D8+H8+L8+P8</f>
@@ -9267,7 +9283,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>44898</v>
+        <v>44929</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1"/>
@@ -9285,7 +9301,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="35"/>
+      <c r="R9" s="35">
+        <v>65</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="4">
         <f t="shared" si="0"/>
@@ -9298,7 +9316,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>44899</v>
+        <v>44930</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="1"/>
@@ -9316,7 +9334,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="35"/>
+      <c r="R10" s="35">
+        <v>56</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="4">
         <f t="shared" si="0"/>
@@ -9329,7 +9349,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>44900</v>
+        <v>44931</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="1"/>
@@ -9347,7 +9367,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="35"/>
+      <c r="R11" s="35">
+        <v>51</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="4">
         <f t="shared" si="0"/>
@@ -9360,7 +9382,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>44901</v>
+        <v>44932</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="1"/>
@@ -9378,7 +9400,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="35"/>
+      <c r="R12" s="35">
+        <v>59</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="4">
         <f t="shared" si="0"/>
@@ -9391,7 +9415,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>44902</v>
+        <v>44933</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
@@ -9409,7 +9433,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="35"/>
+      <c r="R13" s="35">
+        <v>0</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="4">
         <f t="shared" si="0"/>
@@ -9422,7 +9448,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>44903</v>
+        <v>44934</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="1"/>
@@ -9440,7 +9466,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="35"/>
+      <c r="R14" s="35">
+        <v>0</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="4">
         <f t="shared" si="0"/>
@@ -9453,7 +9481,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>44904</v>
+        <v>44935</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="1"/>
@@ -9484,7 +9512,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>44905</v>
+        <v>44936</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
@@ -9515,7 +9543,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>44906</v>
+        <v>44937</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
@@ -9546,7 +9574,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>44907</v>
+        <v>44938</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="1"/>
@@ -9577,7 +9605,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>44908</v>
+        <v>44939</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
@@ -9608,7 +9636,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>44909</v>
+        <v>44940</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="1"/>
@@ -9639,7 +9667,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>44910</v>
+        <v>44941</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
@@ -9670,7 +9698,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>44911</v>
+        <v>44942</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="1"/>
@@ -9701,7 +9729,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>44912</v>
+        <v>44943</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
@@ -9732,7 +9760,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>44913</v>
+        <v>44944</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
@@ -9763,7 +9791,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>44914</v>
+        <v>44945</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
@@ -9794,7 +9822,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>44915</v>
+        <v>44946</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
@@ -9825,7 +9853,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>44916</v>
+        <v>44947</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
@@ -9856,7 +9884,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>44917</v>
+        <v>44948</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
@@ -9887,7 +9915,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>44918</v>
+        <v>44949</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
@@ -9918,7 +9946,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>44919</v>
+        <v>44950</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
@@ -9949,7 +9977,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>44920</v>
+        <v>44951</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
@@ -9980,7 +10008,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>44921</v>
+        <v>44952</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
@@ -10011,7 +10039,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>44922</v>
+        <v>44953</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
@@ -10042,7 +10070,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>44923</v>
+        <v>44954</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
@@ -10067,7 +10095,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>44924</v>
+        <v>44955</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
@@ -10092,7 +10120,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>44925</v>
+        <v>44956</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
@@ -10117,7 +10145,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
@@ -10210,7 +10238,7 @@
       </c>
       <c r="R38" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="1"/>
@@ -10245,8 +10273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+    <sheetView topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18160,7 +18188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="20">
         <v>44916</v>
       </c>
@@ -18179,7 +18207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="20">
         <v>44917</v>
       </c>
@@ -18198,7 +18226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="20">
         <v>44918</v>
       </c>
@@ -18217,7 +18245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="20">
         <v>44919</v>
       </c>
@@ -18236,7 +18264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="20">
         <v>44920</v>
       </c>
@@ -18255,7 +18283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="20">
         <v>44921</v>
       </c>
@@ -18274,7 +18302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="20">
         <v>44922</v>
       </c>
@@ -18293,7 +18321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="20">
         <v>44923</v>
       </c>
@@ -18301,58 +18329,70 @@
         <f t="shared" si="25"/>
         <v>69378</v>
       </c>
-      <c r="C424" s="35"/>
+      <c r="C424" s="35">
+        <v>69434</v>
+      </c>
       <c r="D424" s="35">
         <f t="shared" si="26"/>
-        <v>-69378</v>
+        <v>56</v>
       </c>
       <c r="E424" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="20">
         <v>44924</v>
       </c>
       <c r="B425" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C425" s="35"/>
+        <v>69434</v>
+      </c>
+      <c r="C425" s="35">
+        <v>69458</v>
+      </c>
       <c r="D425" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E425" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="20">
         <v>44925</v>
       </c>
       <c r="B426" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C426" s="35"/>
+        <v>69458</v>
+      </c>
+      <c r="C426" s="35">
+        <v>69500</v>
+      </c>
       <c r="D426" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E426" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F426">
+        <f>SUM(D422:D426)</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="20">
         <v>44926</v>
       </c>
       <c r="B427" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C427" s="35"/>
+        <v>69500</v>
+      </c>
+      <c r="C427" s="35">
+        <v>69500</v>
+      </c>
       <c r="D427" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18361,15 +18401,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="20">
         <v>44927</v>
       </c>
       <c r="B428" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C428" s="35"/>
+        <v>69500</v>
+      </c>
+      <c r="C428" s="35">
+        <v>69500</v>
+      </c>
       <c r="D428" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18378,100 +18420,116 @@
         <v>54</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="20">
         <v>44928</v>
       </c>
       <c r="B429" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C429" s="35"/>
+        <v>69500</v>
+      </c>
+      <c r="C429" s="35">
+        <v>69623</v>
+      </c>
       <c r="D429" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E429" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="20">
         <v>44929</v>
       </c>
       <c r="B430" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C430" s="35"/>
+        <v>69623</v>
+      </c>
+      <c r="C430" s="35">
+        <v>69688</v>
+      </c>
       <c r="D430" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E430" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="20">
         <v>44930</v>
       </c>
       <c r="B431" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C431" s="35"/>
+        <v>69688</v>
+      </c>
+      <c r="C431" s="35">
+        <v>69744</v>
+      </c>
       <c r="D431" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E431" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="20">
         <v>44931</v>
       </c>
       <c r="B432" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C432" s="35"/>
+        <v>69744</v>
+      </c>
+      <c r="C432" s="35">
+        <v>69795</v>
+      </c>
       <c r="D432" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E432" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="20">
         <v>44932</v>
       </c>
       <c r="B433" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C433" s="35"/>
+        <v>69795</v>
+      </c>
+      <c r="C433" s="35">
+        <v>69854</v>
+      </c>
       <c r="D433" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E433" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F433">
+        <f>SUM(D429:D433)</f>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="20">
         <v>44933</v>
       </c>
       <c r="B434" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C434" s="35"/>
+        <v>69854</v>
+      </c>
+      <c r="C434" s="35">
+        <v>69854</v>
+      </c>
       <c r="D434" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18480,15 +18538,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="20">
         <v>44934</v>
       </c>
       <c r="B435" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C435" s="35"/>
+        <v>69854</v>
+      </c>
+      <c r="C435" s="35">
+        <v>69854</v>
+      </c>
       <c r="D435" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18497,24 +18557,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="20">
         <v>44935</v>
       </c>
       <c r="B436" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>69854</v>
       </c>
       <c r="C436" s="35"/>
       <c r="D436" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-69854</v>
       </c>
       <c r="E436" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="20">
         <v>44936</v>
       </c>
@@ -18531,7 +18591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="20">
         <v>44937</v>
       </c>
@@ -18548,7 +18608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="20">
         <v>44938</v>
       </c>
@@ -18565,7 +18625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="20">
         <v>44939</v>
       </c>
@@ -18582,7 +18642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="20">
         <v>44940</v>
       </c>
@@ -18599,7 +18659,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="20">
         <v>44941</v>
       </c>
@@ -18616,7 +18676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="20">
         <v>44942</v>
       </c>
@@ -18633,7 +18693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="20">
         <v>44943</v>
       </c>
@@ -18650,7 +18710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="20">
         <v>44944</v>
       </c>
@@ -18667,7 +18727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="20">
         <v>44945</v>
       </c>
@@ -18684,7 +18744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="20">
         <v>44946</v>
       </c>
@@ -18701,7 +18761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="20">
         <v>44947</v>
       </c>
@@ -20004,7 +20064,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21137,7 +21197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>44557</v>
       </c>
@@ -21173,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>44558</v>
       </c>
@@ -21209,7 +21269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>44559</v>
       </c>
@@ -21245,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>44560</v>
       </c>
@@ -21281,7 +21341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>44561</v>
       </c>
@@ -21313,8 +21373,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <f>SUM(R34:R37)</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="11.21" sheetId="2" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="11.22" sheetId="15" r:id="rId13"/>
     <sheet name="12.22" sheetId="16" r:id="rId14"/>
     <sheet name="1.23" sheetId="17" r:id="rId15"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId16"/>
+    <sheet name="2.23" sheetId="18" r:id="rId16"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="103">
   <si>
     <t>Подобове споживання енергоносіїв та води за листопад 2021 р.</t>
   </si>
@@ -395,6 +396,9 @@
   </si>
   <si>
     <t>Подобове споживання енергоносіїв та води за січень 2023 р.</t>
+  </si>
+  <si>
+    <t>Подобове споживання енергоносіїв та води за лютий 2023 р.</t>
   </si>
 </sst>
 </file>
@@ -7715,7 +7719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -9021,8 +9025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9499,7 +9503,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="35"/>
+      <c r="R15" s="35">
+        <v>56</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="4">
         <f t="shared" si="0"/>
@@ -9530,7 +9536,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="35"/>
+      <c r="R16" s="35">
+        <v>54</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="4">
         <f t="shared" si="0"/>
@@ -9561,7 +9569,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="35"/>
+      <c r="R17" s="35">
+        <v>51</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="4">
         <f t="shared" si="0"/>
@@ -9592,7 +9602,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="35"/>
+      <c r="R18" s="35">
+        <v>53</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="4">
         <f t="shared" si="0"/>
@@ -9623,7 +9635,9 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="35"/>
+      <c r="R19" s="35">
+        <v>55</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="4">
         <f t="shared" si="0"/>
@@ -9654,7 +9668,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="35"/>
+      <c r="R20" s="35">
+        <v>0</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="4">
         <f t="shared" si="0"/>
@@ -9685,7 +9701,10 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="35"/>
+      <c r="R21" s="35">
+        <f>Лист3!D442</f>
+        <v>0</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="4">
         <f t="shared" si="0"/>
@@ -9716,7 +9735,10 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="35"/>
+      <c r="R22" s="35">
+        <f>Лист3!D443</f>
+        <v>49</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="4">
         <f t="shared" si="0"/>
@@ -9747,7 +9769,10 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="35"/>
+      <c r="R23" s="35">
+        <f>Лист3!D444</f>
+        <v>55</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="4">
         <f t="shared" si="0"/>
@@ -9778,7 +9803,10 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="35"/>
+      <c r="R24" s="35">
+        <f>Лист3!D445</f>
+        <v>56</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="4">
         <f t="shared" si="0"/>
@@ -9809,7 +9837,10 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="35"/>
+      <c r="R25" s="35">
+        <f>Лист3!D446</f>
+        <v>41</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="4">
         <f t="shared" si="0"/>
@@ -9840,7 +9871,10 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="35"/>
+      <c r="R26" s="35">
+        <f>Лист3!D447</f>
+        <v>46</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
@@ -9871,7 +9905,10 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="35"/>
+      <c r="R27" s="35">
+        <f>Лист3!D448</f>
+        <v>0</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="4">
         <f t="shared" si="0"/>
@@ -9902,7 +9939,10 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="35"/>
+      <c r="R28" s="35">
+        <f>Лист3!D449</f>
+        <v>0</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="4">
         <f t="shared" si="0"/>
@@ -9933,7 +9973,10 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="35"/>
+      <c r="R29" s="35">
+        <f>Лист3!D450</f>
+        <v>0</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="4">
         <f t="shared" si="0"/>
@@ -9964,7 +10007,10 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="35"/>
+      <c r="R30" s="35">
+        <f>Лист3!D451</f>
+        <v>58</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="4">
         <f t="shared" si="0"/>
@@ -9995,7 +10041,10 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="35"/>
+      <c r="R31" s="35">
+        <f>Лист3!D452</f>
+        <v>56</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="4">
         <f t="shared" si="0"/>
@@ -10026,7 +10075,10 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="35"/>
+      <c r="R32" s="35">
+        <f>Лист3!D453</f>
+        <v>57</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="4">
         <f t="shared" si="0"/>
@@ -10057,7 +10109,10 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="35"/>
+      <c r="R33" s="35">
+        <f>Лист3!D454</f>
+        <v>61</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="4">
         <f t="shared" si="0"/>
@@ -10088,7 +10143,10 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="35"/>
+      <c r="R34" s="35">
+        <f>Лист3!D455</f>
+        <v>0</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="4"/>
       <c r="U34" s="2"/>
@@ -10097,6 +10155,1333 @@
       <c r="A35" s="5">
         <v>44955</v>
       </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="35">
+        <f>Лист3!D456</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>44956</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="35">
+        <f>Лист3!D457</f>
+        <v>66</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>44957</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="35">
+        <f>Лист3!D458</f>
+        <v>56</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="13">
+        <f t="shared" ref="B38:U38" si="1">SUM(B7:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="1"/>
+        <v>1224</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:I5"/>
+    <mergeCell ref="J3:M5"/>
+    <mergeCell ref="N3:Q5"/>
+    <mergeCell ref="R3:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="17" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="42"/>
+    </row>
+    <row r="6" spans="1:21" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="46"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>44958</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="35">
+        <f>Лист3!D459</f>
+        <v>54</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <f>D7+H7+L7+P7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <f>E7+I7+M7+Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>44959</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="35">
+        <f>Лист3!D460</f>
+        <v>54</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="4">
+        <f t="shared" ref="T8:U33" si="0">D8+H8+L8+P8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>44960</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="35">
+        <f>Лист3!D461</f>
+        <v>64</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>44961</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="35">
+        <f>Лист3!D462</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>44962</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="35">
+        <f>Лист3!D463</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>44963</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="35">
+        <f>Лист3!D464</f>
+        <v>85</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>44964</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="35">
+        <f>Лист3!D465</f>
+        <v>72</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>44965</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="35">
+        <f>Лист3!D466</f>
+        <v>69</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>44966</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="35">
+        <f>Лист3!D467</f>
+        <v>76</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="35">
+        <f>Лист3!D468</f>
+        <v>77</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="35">
+        <f>Лист3!D469</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="35">
+        <f>Лист3!D470</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>44970</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="35">
+        <f>Лист3!D471</f>
+        <v>-71275</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="35">
+        <f>Лист3!D472</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>44972</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="35">
+        <f>Лист3!D473</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>44973</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="35">
+        <f>Лист3!D474</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44974</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="35">
+        <f>Лист3!D475</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="35">
+        <f>Лист3!D476</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44976</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="35">
+        <f>Лист3!D477</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44977</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="35">
+        <f>Лист3!D478</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44978</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="35">
+        <f>Лист3!D479</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44979</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="35">
+        <f>Лист3!D480</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44980</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="35">
+        <f>Лист3!D481</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="35">
+        <f>Лист3!D482</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="35">
+        <f>Лист3!D483</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="35">
+        <f>Лист3!D484</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>44984</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="35">
+        <f>Лист3!D485</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44985</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="35">
+        <f>Лист3!D486</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -10119,9 +11504,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>44956</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -10144,9 +11527,7 @@
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>44957</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -10238,7 +11619,7 @@
       </c>
       <c r="R38" s="13">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>-70724</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="1"/>
@@ -10269,12 +11650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:G523"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="F487" sqref="F487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11496,7 +12877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>44564</v>
       </c>
@@ -11515,7 +12896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>44565</v>
       </c>
@@ -11534,7 +12915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>44566</v>
       </c>
@@ -11553,7 +12934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>44567</v>
       </c>
@@ -11572,7 +12953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>44568</v>
       </c>
@@ -11591,7 +12972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44569</v>
       </c>
@@ -11610,7 +12991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>44570</v>
       </c>
@@ -11629,7 +13010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>44571</v>
       </c>
@@ -11648,7 +13029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>44572</v>
       </c>
@@ -11667,7 +13048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>44573</v>
       </c>
@@ -11686,7 +13067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>44574</v>
       </c>
@@ -11705,7 +13086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44575</v>
       </c>
@@ -11724,7 +13105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>44576</v>
       </c>
@@ -11742,8 +13123,12 @@
       <c r="E77" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <f>SUM(D71:D77)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>44577</v>
       </c>
@@ -11762,7 +13147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>44578</v>
       </c>
@@ -11781,7 +13166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44579</v>
       </c>
@@ -11800,7 +13185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>44580</v>
       </c>
@@ -11819,7 +13204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>44581</v>
       </c>
@@ -11838,7 +13223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>44582</v>
       </c>
@@ -11857,7 +13242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>44583</v>
       </c>
@@ -11875,8 +13260,16 @@
       <c r="E84" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <f>SUM(D78:D84)</f>
+        <v>373</v>
+      </c>
+      <c r="G84">
+        <f>SUM(D63:D84)</f>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>44584</v>
       </c>
@@ -11895,7 +13288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44585</v>
       </c>
@@ -11914,7 +13307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>44586</v>
       </c>
@@ -11933,7 +13326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>44587</v>
       </c>
@@ -11952,7 +13345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44588</v>
       </c>
@@ -11971,7 +13364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>44589</v>
       </c>
@@ -11990,7 +13383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>44590</v>
       </c>
@@ -12008,8 +13401,12 @@
       <c r="E91" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <f>SUM(D63:D91)</f>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
         <v>44591</v>
       </c>
@@ -12028,7 +13425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
         <v>44592</v>
       </c>
@@ -12046,8 +13443,12 @@
       <c r="E93" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <f>SUM(D85:D93)</f>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
         <v>44593</v>
       </c>
@@ -12066,7 +13467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44594</v>
       </c>
@@ -12085,7 +13486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
         <v>44595</v>
       </c>
@@ -12104,7 +13505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>44596</v>
       </c>
@@ -12123,7 +13524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>44597</v>
       </c>
@@ -12141,8 +13542,12 @@
       <c r="E98" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <f>SUM(D94:D98)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
         <v>44598</v>
       </c>
@@ -12161,7 +13566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44599</v>
       </c>
@@ -12180,7 +13585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44600</v>
       </c>
@@ -12199,7 +13604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
         <v>44601</v>
       </c>
@@ -12218,7 +13623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
         <v>44602</v>
       </c>
@@ -12237,7 +13642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
         <v>44603</v>
       </c>
@@ -12256,7 +13661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
         <v>44604</v>
       </c>
@@ -12274,8 +13679,12 @@
       <c r="E105" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <f>SUM(D94:D105)</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
         <v>44605</v>
       </c>
@@ -12294,7 +13703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
         <v>44606</v>
       </c>
@@ -12313,7 +13722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
         <v>44607</v>
       </c>
@@ -12332,7 +13741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
         <v>44608</v>
       </c>
@@ -12351,7 +13760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
         <v>44609</v>
       </c>
@@ -12370,7 +13779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
         <v>44610</v>
       </c>
@@ -12389,7 +13798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44611</v>
       </c>
@@ -12407,8 +13816,12 @@
       <c r="E112" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <f>SUM(D94:D112)</f>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44612</v>
       </c>
@@ -12427,7 +13840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44613</v>
       </c>
@@ -12446,7 +13859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44614</v>
       </c>
@@ -12465,7 +13878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44615</v>
       </c>
@@ -12484,7 +13897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="20">
         <v>44616</v>
       </c>
@@ -12503,7 +13916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44617</v>
       </c>
@@ -12522,7 +13935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="20">
         <v>44618</v>
       </c>
@@ -12540,8 +13953,12 @@
       <c r="E119" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <f>SUM(D94:D119)</f>
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44619</v>
       </c>
@@ -12560,7 +13977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
         <v>44620</v>
       </c>
@@ -12578,8 +13995,12 @@
       <c r="E121" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <f>SUM(D94:D121)</f>
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
         <v>44621</v>
       </c>
@@ -12598,7 +14019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
         <v>44622</v>
       </c>
@@ -12617,7 +14038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44623</v>
       </c>
@@ -12636,7 +14057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="20">
         <v>44624</v>
       </c>
@@ -12655,7 +14076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="20">
         <v>44625</v>
       </c>
@@ -12674,7 +14095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="20">
         <v>44626</v>
       </c>
@@ -12693,7 +14114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="20">
         <v>44627</v>
       </c>
@@ -18565,10 +19986,12 @@
         <f t="shared" si="25"/>
         <v>69854</v>
       </c>
-      <c r="C436" s="35"/>
+      <c r="C436" s="35">
+        <v>69910</v>
+      </c>
       <c r="D436" s="35">
         <f t="shared" si="26"/>
-        <v>-69854</v>
+        <v>56</v>
       </c>
       <c r="E436" s="30" t="s">
         <v>48</v>
@@ -18580,12 +20003,14 @@
       </c>
       <c r="B437" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C437" s="35"/>
+        <v>69910</v>
+      </c>
+      <c r="C437" s="35">
+        <v>69964</v>
+      </c>
       <c r="D437" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E437" s="35" t="s">
         <v>50</v>
@@ -18597,12 +20022,14 @@
       </c>
       <c r="B438" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C438" s="35"/>
+        <v>69964</v>
+      </c>
+      <c r="C438" s="35">
+        <v>70015</v>
+      </c>
       <c r="D438" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E438" s="35" t="s">
         <v>51</v>
@@ -18614,12 +20041,14 @@
       </c>
       <c r="B439" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C439" s="35"/>
+        <v>70015</v>
+      </c>
+      <c r="C439" s="35">
+        <v>70068</v>
+      </c>
       <c r="D439" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E439" s="30" t="s">
         <v>49</v>
@@ -18631,15 +20060,21 @@
       </c>
       <c r="B440" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C440" s="35"/>
+        <v>70068</v>
+      </c>
+      <c r="C440" s="35">
+        <v>70123</v>
+      </c>
       <c r="D440" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E440" s="30" t="s">
         <v>52</v>
+      </c>
+      <c r="F440">
+        <f>SUM(D436:D440)</f>
+        <v>269</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -18648,11 +20083,13 @@
       </c>
       <c r="B441" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C441" s="35"/>
+        <v>70123</v>
+      </c>
+      <c r="C441" s="35">
+        <v>70123</v>
+      </c>
       <c r="D441" s="35">
-        <f t="shared" si="26"/>
+        <f>C441-B441</f>
         <v>0</v>
       </c>
       <c r="E441" s="14" t="s">
@@ -18665,9 +20102,11 @@
       </c>
       <c r="B442" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C442" s="35"/>
+        <v>70123</v>
+      </c>
+      <c r="C442" s="35">
+        <v>70123</v>
+      </c>
       <c r="D442" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18682,12 +20121,14 @@
       </c>
       <c r="B443" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C443" s="35"/>
+        <v>70123</v>
+      </c>
+      <c r="C443" s="35">
+        <v>70172</v>
+      </c>
       <c r="D443" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E443" s="30" t="s">
         <v>48</v>
@@ -18699,12 +20140,14 @@
       </c>
       <c r="B444" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C444" s="35"/>
+        <v>70172</v>
+      </c>
+      <c r="C444" s="35">
+        <v>70227</v>
+      </c>
       <c r="D444" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E444" s="35" t="s">
         <v>50</v>
@@ -18716,12 +20159,14 @@
       </c>
       <c r="B445" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C445" s="35"/>
+        <v>70227</v>
+      </c>
+      <c r="C445" s="35">
+        <v>70283</v>
+      </c>
       <c r="D445" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E445" s="35" t="s">
         <v>51</v>
@@ -18733,12 +20178,14 @@
       </c>
       <c r="B446" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C446" s="35"/>
+        <v>70283</v>
+      </c>
+      <c r="C446" s="35">
+        <v>70324</v>
+      </c>
       <c r="D446" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E446" s="30" t="s">
         <v>49</v>
@@ -18750,12 +20197,14 @@
       </c>
       <c r="B447" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C447" s="35"/>
+        <v>70324</v>
+      </c>
+      <c r="C447" s="35">
+        <v>70370</v>
+      </c>
       <c r="D447" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E447" s="30" t="s">
         <v>52</v>
@@ -18767,9 +20216,11 @@
       </c>
       <c r="B448" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C448" s="35"/>
+        <v>70370</v>
+      </c>
+      <c r="C448" s="35">
+        <v>70370</v>
+      </c>
       <c r="D448" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18778,15 +20229,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="20">
         <v>44948</v>
       </c>
       <c r="B449" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C449" s="35"/>
+        <v>70370</v>
+      </c>
+      <c r="C449" s="35">
+        <v>70370</v>
+      </c>
       <c r="D449" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18795,15 +20248,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="20">
         <v>44949</v>
       </c>
       <c r="B450" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C450" s="35"/>
+        <v>70370</v>
+      </c>
+      <c r="C450" s="35">
+        <v>70370</v>
+      </c>
       <c r="D450" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18811,84 +20266,98 @@
       <c r="E450" s="30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F450">
+        <f>SUM(D443:D449)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="20">
         <v>44950</v>
       </c>
       <c r="B451" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C451" s="35"/>
+        <v>70370</v>
+      </c>
+      <c r="C451" s="35">
+        <v>70428</v>
+      </c>
       <c r="D451" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E451" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="20">
         <v>44951</v>
       </c>
       <c r="B452" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C452" s="35"/>
+        <v>70428</v>
+      </c>
+      <c r="C452" s="35">
+        <v>70484</v>
+      </c>
       <c r="D452" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E452" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="20">
         <v>44952</v>
       </c>
       <c r="B453" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C453" s="35"/>
+        <v>70484</v>
+      </c>
+      <c r="C453" s="35">
+        <v>70541</v>
+      </c>
       <c r="D453" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E453" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="20">
         <v>44953</v>
       </c>
       <c r="B454" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C454" s="35"/>
+        <v>70541</v>
+      </c>
+      <c r="C454" s="35">
+        <v>70602</v>
+      </c>
       <c r="D454" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E454" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="20">
         <v>44954</v>
       </c>
       <c r="B455" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C455" s="35"/>
+        <v>70602</v>
+      </c>
+      <c r="C455" s="35">
+        <v>70602</v>
+      </c>
       <c r="D455" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18897,15 +20366,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="20">
         <v>44955</v>
       </c>
       <c r="B456" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C456" s="35"/>
+        <v>70602</v>
+      </c>
+      <c r="C456" s="35">
+        <v>70602</v>
+      </c>
       <c r="D456" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -18913,101 +20384,121 @@
       <c r="E456" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F456">
+        <f>SUM(D428:D456)</f>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="20">
         <v>44956</v>
       </c>
       <c r="B457" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C457" s="35"/>
+        <v>70602</v>
+      </c>
+      <c r="C457" s="35">
+        <v>70668</v>
+      </c>
       <c r="D457" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E457" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="20">
         <v>44957</v>
       </c>
       <c r="B458" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C458" s="35"/>
+        <v>70668</v>
+      </c>
+      <c r="C458" s="35">
+        <v>70724</v>
+      </c>
       <c r="D458" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E458" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F458">
+        <f>SUM(D428:D458)</f>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="20">
         <v>44958</v>
       </c>
       <c r="B459" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C459" s="35"/>
+        <v>70724</v>
+      </c>
+      <c r="C459" s="35">
+        <v>70778</v>
+      </c>
       <c r="D459" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E459" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="20">
         <v>44959</v>
       </c>
       <c r="B460" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C460" s="35"/>
+        <v>70778</v>
+      </c>
+      <c r="C460" s="35">
+        <v>70832</v>
+      </c>
       <c r="D460" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E460" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="20">
         <v>44960</v>
       </c>
       <c r="B461" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C461" s="35"/>
+        <v>70832</v>
+      </c>
+      <c r="C461" s="35">
+        <v>70896</v>
+      </c>
       <c r="D461" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E461" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="20">
         <v>44961</v>
       </c>
       <c r="B462" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C462" s="35"/>
+        <v>70896</v>
+      </c>
+      <c r="C462" s="35">
+        <v>70896</v>
+      </c>
       <c r="D462" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -19016,15 +20507,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="20">
         <v>44962</v>
       </c>
       <c r="B463" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C463" s="35"/>
+        <v>70896</v>
+      </c>
+      <c r="C463" s="35">
+        <v>70896</v>
+      </c>
       <c r="D463" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -19032,101 +20525,117 @@
       <c r="E463" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F463">
+        <f>SUM(D459:D463)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="20">
         <v>44963</v>
       </c>
       <c r="B464" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C464" s="35"/>
+        <v>70896</v>
+      </c>
+      <c r="C464" s="35">
+        <v>70981</v>
+      </c>
       <c r="D464" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E464" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="20">
         <v>44964</v>
       </c>
       <c r="B465" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C465" s="35"/>
+        <v>70981</v>
+      </c>
+      <c r="C465" s="35">
+        <v>71053</v>
+      </c>
       <c r="D465" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E465" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="20">
         <v>44965</v>
       </c>
       <c r="B466" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C466" s="35"/>
+        <v>71053</v>
+      </c>
+      <c r="C466" s="35">
+        <v>71122</v>
+      </c>
       <c r="D466" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E466" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="20">
         <v>44966</v>
       </c>
       <c r="B467" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C467" s="35"/>
+        <v>71122</v>
+      </c>
+      <c r="C467" s="35">
+        <v>71198</v>
+      </c>
       <c r="D467" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E467" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="20">
         <v>44967</v>
       </c>
       <c r="B468" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C468" s="35"/>
+        <v>71198</v>
+      </c>
+      <c r="C468" s="35">
+        <v>71275</v>
+      </c>
       <c r="D468" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E468" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="20">
         <v>44968</v>
       </c>
       <c r="B469" s="35">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="C469" s="35"/>
+        <v>71275</v>
+      </c>
+      <c r="C469" s="35">
+        <v>71275</v>
+      </c>
       <c r="D469" s="35">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -19135,15 +20644,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="20">
         <v>44969</v>
       </c>
       <c r="B470" s="35">
         <f t="shared" ref="B470:B523" si="27">C469</f>
-        <v>0</v>
-      </c>
-      <c r="C470" s="35"/>
+        <v>71275</v>
+      </c>
+      <c r="C470" s="35">
+        <v>71275</v>
+      </c>
       <c r="D470" s="35">
         <f t="shared" ref="D470:D523" si="28">C470-B470</f>
         <v>0</v>
@@ -19151,25 +20662,29 @@
       <c r="E470" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F470">
+        <f>SUM(D459:D470)</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="20">
         <v>44970</v>
       </c>
       <c r="B471" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>71275</v>
       </c>
       <c r="C471" s="35"/>
       <c r="D471" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>-71275</v>
       </c>
       <c r="E471" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="20">
         <v>44971</v>
       </c>
@@ -19186,7 +20701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="20">
         <v>44972</v>
       </c>
@@ -19203,7 +20718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="20">
         <v>44973</v>
       </c>
@@ -19220,7 +20735,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="20">
         <v>44974</v>
       </c>
@@ -19237,7 +20752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="20">
         <v>44975</v>
       </c>
@@ -19254,7 +20769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="20">
         <v>44976</v>
       </c>
@@ -19270,8 +20785,12 @@
       <c r="E477" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F477">
+        <f>SUM(D459:D477)</f>
+        <v>-70724</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="20">
         <v>44977</v>
       </c>
@@ -19288,7 +20807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="20">
         <v>44978</v>
       </c>
@@ -19305,7 +20824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="20">
         <v>44979</v>
       </c>
@@ -19322,7 +20841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="20">
         <v>44980</v>
       </c>
@@ -19339,7 +20858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="20">
         <v>44981</v>
       </c>
@@ -19356,7 +20875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="20">
         <v>44982</v>
       </c>
@@ -19373,7 +20892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="20">
         <v>44983</v>
       </c>
@@ -19389,8 +20908,12 @@
       <c r="E484" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F484">
+        <f>SUM(D459:D484)</f>
+        <v>-70724</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="20">
         <v>44984</v>
       </c>
@@ -19407,7 +20930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="20">
         <v>44985</v>
       </c>
@@ -19423,8 +20946,12 @@
       <c r="E486" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F486">
+        <f>SUM(D459:D486)</f>
+        <v>-70724</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="20">
         <v>44986</v>
       </c>
@@ -19441,7 +20968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="20">
         <v>44987</v>
       </c>
@@ -19458,7 +20985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="20">
         <v>44988</v>
       </c>
@@ -19475,7 +21002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="20">
         <v>44989</v>
       </c>
@@ -19492,7 +21019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="20">
         <v>44990</v>
       </c>
@@ -19509,7 +21036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="20">
         <v>44991</v>
       </c>
@@ -19526,7 +21053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="20">
         <v>44992</v>
       </c>
@@ -19543,7 +21070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="20">
         <v>44993</v>
       </c>
@@ -19560,7 +21087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="20">
         <v>44994</v>
       </c>
@@ -19577,7 +21104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="20">
         <v>44995</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -10964,7 +10964,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="35">
         <f>Лист3!D471</f>
-        <v>-71275</v>
+        <v>105</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="4">
@@ -10998,7 +10998,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="35">
         <f>Лист3!D472</f>
-        <v>0</v>
+        <v>-71380</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="4">
@@ -11655,7 +11655,7 @@
   <dimension ref="A1:G523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="F487" sqref="F487"/>
+      <selection activeCell="F473" sqref="F473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20675,10 +20675,12 @@
         <f t="shared" si="27"/>
         <v>71275</v>
       </c>
-      <c r="C471" s="35"/>
+      <c r="C471" s="35">
+        <v>71380</v>
+      </c>
       <c r="D471" s="35">
         <f t="shared" si="28"/>
-        <v>-71275</v>
+        <v>105</v>
       </c>
       <c r="E471" s="30" t="s">
         <v>48</v>
@@ -20690,12 +20692,12 @@
       </c>
       <c r="B472" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>71380</v>
       </c>
       <c r="C472" s="35"/>
       <c r="D472" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>-71380</v>
       </c>
       <c r="E472" s="35" t="s">
         <v>50</v>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="11.21" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="2.23" sheetId="18" r:id="rId16"/>
     <sheet name="Лист3" sheetId="3" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -884,6 +884,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -931,7 +934,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -966,7 +969,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10998,7 +11001,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="35">
         <f>Лист3!D472</f>
-        <v>-71380</v>
+        <v>70</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="4">
@@ -11032,7 +11035,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="35">
         <f>Лист3!D473</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="4">
@@ -11066,7 +11069,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="35">
         <f>Лист3!D474</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="4">
@@ -11100,7 +11103,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="35">
         <f>Лист3!D475</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="4">
@@ -11134,7 +11137,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="35">
         <f>Лист3!D476</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="4">
@@ -11168,7 +11171,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="35">
         <f>Лист3!D477</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="4">
@@ -11202,7 +11205,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="35">
         <f>Лист3!D478</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="4">
@@ -11236,7 +11239,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="35">
         <f>Лист3!D479</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="4">
@@ -11270,7 +11273,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="35">
         <f>Лист3!D480</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="4">
@@ -11304,7 +11307,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="35">
         <f>Лист3!D481</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="4">
@@ -11338,7 +11341,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="35">
         <f>Лист3!D482</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="4">
@@ -11372,7 +11375,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="35">
         <f>Лист3!D483</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="4">
@@ -11406,7 +11409,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="35">
         <f>Лист3!D484</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="4">
@@ -11474,7 +11477,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="35">
         <f>Лист3!D486</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="4"/>
@@ -11619,7 +11622,7 @@
       </c>
       <c r="R38" s="13">
         <f t="shared" si="1"/>
-        <v>-70724</v>
+        <v>1437</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="1"/>
@@ -11654,8 +11657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="F473" sqref="F473"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="F518" sqref="F518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14094,6 +14097,10 @@
       <c r="E126" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="F126">
+        <f>SUM(D122:D126)</f>
+        <v>208</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="20">
@@ -20694,10 +20701,12 @@
         <f t="shared" si="27"/>
         <v>71380</v>
       </c>
-      <c r="C472" s="35"/>
+      <c r="C472" s="35">
+        <v>71450</v>
+      </c>
       <c r="D472" s="35">
         <f t="shared" si="28"/>
-        <v>-71380</v>
+        <v>70</v>
       </c>
       <c r="E472" s="35" t="s">
         <v>50</v>
@@ -20709,12 +20718,14 @@
       </c>
       <c r="B473" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C473" s="35"/>
+        <v>71450</v>
+      </c>
+      <c r="C473" s="35">
+        <v>71520</v>
+      </c>
       <c r="D473" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E473" s="35" t="s">
         <v>51</v>
@@ -20726,12 +20737,14 @@
       </c>
       <c r="B474" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C474" s="35"/>
+        <v>71520</v>
+      </c>
+      <c r="C474" s="35">
+        <v>71590</v>
+      </c>
       <c r="D474" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E474" s="30" t="s">
         <v>49</v>
@@ -20743,12 +20756,14 @@
       </c>
       <c r="B475" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C475" s="35"/>
+        <v>71590</v>
+      </c>
+      <c r="C475" s="35">
+        <v>71660</v>
+      </c>
       <c r="D475" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E475" s="30" t="s">
         <v>52</v>
@@ -20760,12 +20775,14 @@
       </c>
       <c r="B476" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C476" s="35"/>
+        <v>71660</v>
+      </c>
+      <c r="C476" s="35">
+        <v>71700</v>
+      </c>
       <c r="D476" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E476" s="14" t="s">
         <v>53</v>
@@ -20777,19 +20794,21 @@
       </c>
       <c r="B477" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C477" s="35"/>
+        <v>71700</v>
+      </c>
+      <c r="C477" s="35">
+        <v>71744</v>
+      </c>
       <c r="D477" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E477" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F477">
         <f>SUM(D459:D477)</f>
-        <v>-70724</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -20798,12 +20817,14 @@
       </c>
       <c r="B478" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C478" s="35"/>
+        <v>71744</v>
+      </c>
+      <c r="C478" s="35">
+        <v>71800</v>
+      </c>
       <c r="D478" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E478" s="30" t="s">
         <v>48</v>
@@ -20815,12 +20836,14 @@
       </c>
       <c r="B479" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C479" s="35"/>
+        <v>71800</v>
+      </c>
+      <c r="C479" s="35">
+        <v>71860</v>
+      </c>
       <c r="D479" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E479" s="35" t="s">
         <v>50</v>
@@ -20832,12 +20855,14 @@
       </c>
       <c r="B480" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C480" s="35"/>
+        <v>71860</v>
+      </c>
+      <c r="C480" s="35">
+        <v>71900</v>
+      </c>
       <c r="D480" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E480" s="35" t="s">
         <v>51</v>
@@ -20849,12 +20874,14 @@
       </c>
       <c r="B481" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C481" s="35"/>
+        <v>71900</v>
+      </c>
+      <c r="C481" s="35">
+        <v>71970</v>
+      </c>
       <c r="D481" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E481" s="30" t="s">
         <v>49</v>
@@ -20866,12 +20893,14 @@
       </c>
       <c r="B482" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C482" s="35"/>
+        <v>71970</v>
+      </c>
+      <c r="C482" s="35">
+        <v>72000</v>
+      </c>
       <c r="D482" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E482" s="30" t="s">
         <v>52</v>
@@ -20883,12 +20912,14 @@
       </c>
       <c r="B483" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C483" s="35"/>
+        <v>72000</v>
+      </c>
+      <c r="C483" s="35">
+        <v>72002</v>
+      </c>
       <c r="D483" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E483" s="14" t="s">
         <v>53</v>
@@ -20900,19 +20931,21 @@
       </c>
       <c r="B484" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C484" s="35"/>
+        <v>72002</v>
+      </c>
+      <c r="C484" s="35">
+        <v>72004</v>
+      </c>
       <c r="D484" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E484" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F484">
         <f>SUM(D459:D484)</f>
-        <v>-70724</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -20921,9 +20954,11 @@
       </c>
       <c r="B485" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C485" s="35"/>
+        <v>72004</v>
+      </c>
+      <c r="C485" s="35">
+        <v>72004</v>
+      </c>
       <c r="D485" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -20938,19 +20973,21 @@
       </c>
       <c r="B486" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C486" s="35"/>
+        <v>72004</v>
+      </c>
+      <c r="C486" s="35">
+        <v>72161</v>
+      </c>
       <c r="D486" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="E486" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F486">
         <f>SUM(D459:D486)</f>
-        <v>-70724</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -20959,12 +20996,14 @@
       </c>
       <c r="B487" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C487" s="35"/>
+        <v>72161</v>
+      </c>
+      <c r="C487" s="35">
+        <v>72200</v>
+      </c>
       <c r="D487" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E487" s="35" t="s">
         <v>51</v>
@@ -20976,12 +21015,14 @@
       </c>
       <c r="B488" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C488" s="35"/>
+        <v>72200</v>
+      </c>
+      <c r="C488" s="35">
+        <v>72270</v>
+      </c>
       <c r="D488" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E488" s="30" t="s">
         <v>49</v>
@@ -20993,12 +21034,14 @@
       </c>
       <c r="B489" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C489" s="35"/>
+        <v>72270</v>
+      </c>
+      <c r="C489" s="35">
+        <v>72291</v>
+      </c>
       <c r="D489" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E489" s="30" t="s">
         <v>52</v>
@@ -21010,9 +21053,11 @@
       </c>
       <c r="B490" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C490" s="35"/>
+        <v>72291</v>
+      </c>
+      <c r="C490" s="35">
+        <v>72291</v>
+      </c>
       <c r="D490" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21027,15 +21072,21 @@
       </c>
       <c r="B491" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C491" s="35"/>
+        <v>72291</v>
+      </c>
+      <c r="C491" s="35">
+        <v>72291</v>
+      </c>
       <c r="D491" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E491" s="14" t="s">
         <v>54</v>
+      </c>
+      <c r="F491">
+        <f>SUM(D487:D491)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -21044,12 +21095,14 @@
       </c>
       <c r="B492" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C492" s="35"/>
+        <v>72291</v>
+      </c>
+      <c r="C492" s="35">
+        <v>72443</v>
+      </c>
       <c r="D492" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E492" s="30" t="s">
         <v>48</v>
@@ -21061,12 +21114,12 @@
       </c>
       <c r="B493" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>72443</v>
       </c>
       <c r="C493" s="35"/>
       <c r="D493" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>-72443</v>
       </c>
       <c r="E493" s="35" t="s">
         <v>50</v>
@@ -21123,7 +21176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="20">
         <v>44996</v>
       </c>
@@ -21140,7 +21193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="20">
         <v>44997</v>
       </c>
@@ -21156,8 +21209,12 @@
       <c r="E498" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F498">
+        <f>SUM(D487:D498)</f>
+        <v>-72161</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="20">
         <v>44998</v>
       </c>
@@ -21174,7 +21231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="20">
         <v>44999</v>
       </c>
@@ -21191,7 +21248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="20">
         <v>45000</v>
       </c>
@@ -21208,7 +21265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="20">
         <v>45001</v>
       </c>
@@ -21225,7 +21282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="20">
         <v>45002</v>
       </c>
@@ -21242,7 +21299,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="20">
         <v>45003</v>
       </c>
@@ -21259,7 +21316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="20">
         <v>45004</v>
       </c>
@@ -21275,8 +21332,12 @@
       <c r="E505" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F505">
+        <f>SUM(D487:D505)</f>
+        <v>-72161</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="20">
         <v>45005</v>
       </c>
@@ -21293,7 +21354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="20">
         <v>45006</v>
       </c>
@@ -21310,7 +21371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="20">
         <v>45007</v>
       </c>
@@ -21327,7 +21388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="20">
         <v>45008</v>
       </c>
@@ -21344,7 +21405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="20">
         <v>45009</v>
       </c>
@@ -21361,7 +21422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="20">
         <v>45010</v>
       </c>
@@ -21378,7 +21439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="20">
         <v>45011</v>
       </c>
@@ -21394,8 +21455,12 @@
       <c r="E512" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F512">
+        <f>SUM(D487:D512)</f>
+        <v>-72161</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="20">
         <v>45012</v>
       </c>
@@ -21412,7 +21477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="20">
         <v>45013</v>
       </c>
@@ -21429,7 +21494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="20">
         <v>45014</v>
       </c>
@@ -21446,7 +21511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="20">
         <v>45015</v>
       </c>
@@ -21463,7 +21528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="20">
         <v>45016</v>
       </c>
@@ -21479,8 +21544,12 @@
       <c r="E517" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F517">
+        <f>SUM(D487:D517)</f>
+        <v>-72161</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="20">
         <v>45017</v>
       </c>
@@ -21497,7 +21566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="20">
         <v>45018</v>
       </c>
@@ -21514,7 +21583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="20">
         <v>45019</v>
       </c>
@@ -21531,7 +21600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="20">
         <v>45020</v>
       </c>
@@ -21548,7 +21617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="20">
         <v>45021</v>
       </c>
@@ -21565,7 +21634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="20">
         <v>45022</v>
       </c>

--- a/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
+++ b/Лічильники/Подобове споживання ел. енергії Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="11.21" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="103">
   <si>
     <t>Подобове споживання енергоносіїв та води за листопад 2021 р.</t>
   </si>
@@ -11655,10 +11655,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G523"/>
+  <dimension ref="A1:G793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="F518" sqref="F518"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="F579" sqref="F579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14140,7 +14140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="20">
         <v>44628</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="20">
         <v>44629</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="20">
         <v>44630</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="20">
         <v>44631</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="20">
         <v>44632</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="20">
         <v>44633</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="20">
         <v>44634</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="20">
         <v>44635</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="20">
         <v>44636</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="20">
         <v>44637</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="20">
         <v>44638</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="20">
         <v>44639</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="20">
         <v>44640</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="20">
         <v>44641</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="20">
         <v>44642</v>
       </c>
@@ -14424,8 +14424,12 @@
       <c r="E143" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <f>SUM(D2:D143)</f>
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="20">
         <v>44643</v>
       </c>
@@ -14748,7 +14752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="20">
         <v>44660</v>
       </c>
@@ -14766,8 +14770,12 @@
       <c r="E161" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <f>SUM(D153:D161)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="20">
         <v>44661</v>
       </c>
@@ -14786,7 +14794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="20">
         <v>44662</v>
       </c>
@@ -14805,7 +14813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="20">
         <v>44663</v>
       </c>
@@ -14824,7 +14832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="20">
         <v>44664</v>
       </c>
@@ -14843,7 +14851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="20">
         <v>44665</v>
       </c>
@@ -14862,7 +14870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="20">
         <v>44666</v>
       </c>
@@ -14881,7 +14889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="20">
         <v>44667</v>
       </c>
@@ -14899,8 +14907,12 @@
       <c r="E168" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <f>SUM(D153:D168)</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="20">
         <v>44668</v>
       </c>
@@ -14919,7 +14931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="20">
         <v>44669</v>
       </c>
@@ -14938,7 +14950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="20">
         <v>44670</v>
       </c>
@@ -14957,7 +14969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="20">
         <v>44671</v>
       </c>
@@ -14976,7 +14988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="20">
         <v>44672</v>
       </c>
@@ -14995,7 +15007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="20">
         <v>44673</v>
       </c>
@@ -15014,7 +15026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="20">
         <v>44674</v>
       </c>
@@ -15032,8 +15044,12 @@
       <c r="E175" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <f>SUM(D153:D175)</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="20">
         <v>44675</v>
       </c>
@@ -15052,7 +15068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="20">
         <v>44676</v>
       </c>
@@ -15071,7 +15087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="20">
         <v>44677</v>
       </c>
@@ -15090,7 +15106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="20">
         <v>44678</v>
       </c>
@@ -15109,7 +15125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="20">
         <v>44679</v>
       </c>
@@ -15128,7 +15144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="20">
         <v>44680</v>
       </c>
@@ -15147,7 +15163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="20">
         <v>44681</v>
       </c>
@@ -15165,8 +15181,12 @@
       <c r="E182" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <f>SUM(D153:D182)</f>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="20">
         <v>44682</v>
       </c>
@@ -15185,7 +15205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="20">
         <v>44683</v>
       </c>
@@ -15204,7 +15224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="20">
         <v>44684</v>
       </c>
@@ -15223,7 +15243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="20">
         <v>44685</v>
       </c>
@@ -15242,7 +15262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="20">
         <v>44686</v>
       </c>
@@ -15261,7 +15281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="20">
         <v>44687</v>
       </c>
@@ -15280,7 +15300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="20">
         <v>44688</v>
       </c>
@@ -15298,8 +15318,12 @@
       <c r="E189" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <f>SUM(D183:D189)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="20">
         <v>44689</v>
       </c>
@@ -15318,7 +15342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="20">
         <v>44690</v>
       </c>
@@ -15337,7 +15361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="20">
         <v>44691</v>
       </c>
@@ -15356,7 +15380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="20">
         <v>44692</v>
       </c>
@@ -15375,7 +15399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="20">
         <v>44693</v>
       </c>
@@ -15394,7 +15418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="20">
         <v>44694</v>
       </c>
@@ -15413,7 +15437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="20">
         <v>44695</v>
       </c>
@@ -15431,8 +15455,12 @@
       <c r="E196" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <f>SUM(D183:D196)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="20">
         <v>44696</v>
       </c>
@@ -15451,7 +15479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="20">
         <v>44697</v>
       </c>
@@ -15470,7 +15498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="20">
         <v>44698</v>
       </c>
@@ -15489,7 +15517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="20">
         <v>44699</v>
       </c>
@@ -15508,7 +15536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="20">
         <v>44700</v>
       </c>
@@ -15527,7 +15555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="20">
         <v>44701</v>
       </c>
@@ -15546,7 +15574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="20">
         <v>44702</v>
       </c>
@@ -15564,8 +15592,12 @@
       <c r="E203" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <f>SUM(D183:D203)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="20">
         <v>44703</v>
       </c>
@@ -15584,7 +15616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="20">
         <v>44704</v>
       </c>
@@ -15603,7 +15635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="20">
         <v>44705</v>
       </c>
@@ -15622,7 +15654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="20">
         <v>44706</v>
       </c>
@@ -15641,7 +15673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="20">
         <v>44707</v>
       </c>
@@ -15660,7 +15692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="20">
         <v>44708</v>
       </c>
@@ -15679,7 +15711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="20">
         <v>44709</v>
       </c>
@@ -15697,8 +15729,12 @@
       <c r="E210" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <f>SUM(D183:D210)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="20">
         <v>44710</v>
       </c>
@@ -15717,7 +15753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="20">
         <v>44711</v>
       </c>
@@ -15736,7 +15772,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="20">
         <v>44712</v>
       </c>
@@ -15754,8 +15790,12 @@
       <c r="E213" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <f>SUM(D183:D213)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="20">
         <v>44713</v>
       </c>
@@ -15774,7 +15814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="20">
         <v>44714</v>
       </c>
@@ -15793,7 +15833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="20">
         <v>44715</v>
       </c>
@@ -15812,7 +15852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="20">
         <v>44716</v>
       </c>
@@ -15831,7 +15871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="20">
         <v>44717</v>
       </c>
@@ -15850,7 +15890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="20">
         <v>44718</v>
       </c>
@@ -15869,7 +15909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="20">
         <v>44719</v>
       </c>
@@ -15888,7 +15928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="20">
         <v>44720</v>
       </c>
@@ -15907,7 +15947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="20">
         <v>44721</v>
       </c>
@@ -15926,7 +15966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="20">
         <v>44722</v>
       </c>
@@ -15945,7 +15985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="20">
         <v>44723</v>
       </c>
@@ -20121,6 +20161,10 @@
       <c r="E442" s="14" t="s">
         <v>54</v>
       </c>
+      <c r="F442">
+        <f>SUM(D428:D442)</f>
+        <v>623</v>
+      </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="20">
@@ -21116,10 +21160,12 @@
         <f t="shared" si="27"/>
         <v>72443</v>
       </c>
-      <c r="C493" s="35"/>
+      <c r="C493" s="35">
+        <v>72493</v>
+      </c>
       <c r="D493" s="35">
         <f t="shared" si="28"/>
-        <v>-72443</v>
+        <v>50</v>
       </c>
       <c r="E493" s="35" t="s">
         <v>50</v>
@@ -21131,12 +21177,14 @@
       </c>
       <c r="B494" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C494" s="35"/>
+        <v>72493</v>
+      </c>
+      <c r="C494" s="35">
+        <v>72543</v>
+      </c>
       <c r="D494" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E494" s="35" t="s">
         <v>51</v>
@@ -21148,12 +21196,14 @@
       </c>
       <c r="B495" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C495" s="35"/>
+        <v>72543</v>
+      </c>
+      <c r="C495" s="35">
+        <v>72580</v>
+      </c>
       <c r="D495" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E495" s="30" t="s">
         <v>49</v>
@@ -21165,43 +21215,49 @@
       </c>
       <c r="B496" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C496" s="35"/>
+        <v>72580</v>
+      </c>
+      <c r="C496" s="35">
+        <v>72620</v>
+      </c>
       <c r="D496" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E496" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="20">
         <v>44996</v>
       </c>
       <c r="B497" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C497" s="35"/>
+        <v>72620</v>
+      </c>
+      <c r="C497" s="35">
+        <v>72650</v>
+      </c>
       <c r="D497" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E497" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="20">
         <v>44997</v>
       </c>
       <c r="B498" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C498" s="35"/>
+        <v>72650</v>
+      </c>
+      <c r="C498" s="35">
+        <v>72650</v>
+      </c>
       <c r="D498" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21211,120 +21267,134 @@
       </c>
       <c r="F498">
         <f>SUM(D487:D498)</f>
-        <v>-72161</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="20">
         <v>44998</v>
       </c>
       <c r="B499" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C499" s="35"/>
+        <v>72650</v>
+      </c>
+      <c r="C499" s="35">
+        <v>72700</v>
+      </c>
       <c r="D499" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E499" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="20">
         <v>44999</v>
       </c>
       <c r="B500" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C500" s="35"/>
+        <v>72700</v>
+      </c>
+      <c r="C500" s="35">
+        <v>72750</v>
+      </c>
       <c r="D500" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E500" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="20">
         <v>45000</v>
       </c>
       <c r="B501" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C501" s="35"/>
+        <v>72750</v>
+      </c>
+      <c r="C501" s="35">
+        <v>72800</v>
+      </c>
       <c r="D501" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E501" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="20">
         <v>45001</v>
       </c>
       <c r="B502" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C502" s="35"/>
+        <v>72800</v>
+      </c>
+      <c r="C502" s="35">
+        <v>72850</v>
+      </c>
       <c r="D502" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E502" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="20">
         <v>45002</v>
       </c>
       <c r="B503" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C503" s="35"/>
+        <v>72850</v>
+      </c>
+      <c r="C503" s="35">
+        <v>72930</v>
+      </c>
       <c r="D503" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E503" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="20">
         <v>45003</v>
       </c>
       <c r="B504" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C504" s="35"/>
+        <v>72930</v>
+      </c>
+      <c r="C504" s="35">
+        <v>72980</v>
+      </c>
       <c r="D504" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E504" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="20">
         <v>45004</v>
       </c>
       <c r="B505" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C505" s="35"/>
+        <v>72980</v>
+      </c>
+      <c r="C505" s="35">
+        <v>72980</v>
+      </c>
       <c r="D505" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21334,103 +21404,119 @@
       </c>
       <c r="F505">
         <f>SUM(D487:D505)</f>
-        <v>-72161</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+      <c r="G505">
+        <f>SUM(D367:D505)</f>
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="20">
         <v>45005</v>
       </c>
       <c r="B506" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C506" s="35"/>
+        <v>72980</v>
+      </c>
+      <c r="C506" s="35">
+        <v>73020</v>
+      </c>
       <c r="D506" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E506" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="20">
         <v>45006</v>
       </c>
       <c r="B507" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C507" s="35"/>
+        <v>73020</v>
+      </c>
+      <c r="C507" s="35">
+        <v>73050</v>
+      </c>
       <c r="D507" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E507" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="20">
         <v>45007</v>
       </c>
       <c r="B508" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C508" s="35"/>
+        <v>73050</v>
+      </c>
+      <c r="C508" s="35">
+        <v>73095</v>
+      </c>
       <c r="D508" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E508" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="20">
         <v>45008</v>
       </c>
       <c r="B509" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C509" s="35"/>
+        <v>73095</v>
+      </c>
+      <c r="C509" s="35">
+        <v>73135</v>
+      </c>
       <c r="D509" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E509" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="20">
         <v>45009</v>
       </c>
       <c r="B510" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C510" s="35"/>
+        <v>73135</v>
+      </c>
+      <c r="C510" s="35">
+        <v>73180</v>
+      </c>
       <c r="D510" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E510" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="20">
         <v>45010</v>
       </c>
       <c r="B511" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C511" s="35"/>
+        <v>73180</v>
+      </c>
+      <c r="C511" s="35">
+        <v>73180</v>
+      </c>
       <c r="D511" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21439,15 +21525,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="20">
         <v>45011</v>
       </c>
       <c r="B512" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C512" s="35"/>
+        <v>73180</v>
+      </c>
+      <c r="C512" s="35">
+        <v>73180</v>
+      </c>
       <c r="D512" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21457,7 +21545,7 @@
       </c>
       <c r="F512">
         <f>SUM(D487:D512)</f>
-        <v>-72161</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -21466,12 +21554,14 @@
       </c>
       <c r="B513" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C513" s="35"/>
+        <v>73180</v>
+      </c>
+      <c r="C513" s="35">
+        <v>73230</v>
+      </c>
       <c r="D513" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E513" s="30" t="s">
         <v>48</v>
@@ -21483,12 +21573,14 @@
       </c>
       <c r="B514" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C514" s="35"/>
+        <v>73230</v>
+      </c>
+      <c r="C514" s="35">
+        <v>73300</v>
+      </c>
       <c r="D514" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E514" s="35" t="s">
         <v>50</v>
@@ -21500,12 +21592,14 @@
       </c>
       <c r="B515" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C515" s="35"/>
+        <v>73300</v>
+      </c>
+      <c r="C515" s="35">
+        <v>73374</v>
+      </c>
       <c r="D515" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E515" s="35" t="s">
         <v>51</v>
@@ -21517,12 +21611,14 @@
       </c>
       <c r="B516" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C516" s="35"/>
+        <v>73374</v>
+      </c>
+      <c r="C516" s="35">
+        <v>73420</v>
+      </c>
       <c r="D516" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E516" s="30" t="s">
         <v>49</v>
@@ -21534,19 +21630,21 @@
       </c>
       <c r="B517" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C517" s="35"/>
+        <v>73420</v>
+      </c>
+      <c r="C517" s="35">
+        <v>73500</v>
+      </c>
       <c r="D517" s="35">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E517" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F517">
         <f>SUM(D487:D517)</f>
-        <v>-72161</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -21555,9 +21653,11 @@
       </c>
       <c r="B518" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C518" s="35"/>
+        <v>73500</v>
+      </c>
+      <c r="C518" s="35">
+        <v>73500</v>
+      </c>
       <c r="D518" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21572,9 +21672,11 @@
       </c>
       <c r="B519" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C519" s="35"/>
+        <v>73500</v>
+      </c>
+      <c r="C519" s="35">
+        <v>73500</v>
+      </c>
       <c r="D519" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21589,9 +21691,11 @@
       </c>
       <c r="B520" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C520" s="35"/>
+        <v>73500</v>
+      </c>
+      <c r="C520" s="35">
+        <v>73500</v>
+      </c>
       <c r="D520" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21606,9 +21710,11 @@
       </c>
       <c r="B521" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C521" s="35"/>
+        <v>73500</v>
+      </c>
+      <c r="C521" s="35">
+        <v>73500</v>
+      </c>
       <c r="D521" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21623,9 +21729,11 @@
       </c>
       <c r="B522" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C522" s="35"/>
+        <v>73500</v>
+      </c>
+      <c r="C522" s="35">
+        <v>73500</v>
+      </c>
       <c r="D522" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -21640,15 +21748,4691 @@
       </c>
       <c r="B523" s="35">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="C523" s="35"/>
+        <v>73500</v>
+      </c>
+      <c r="C523" s="35">
+        <v>73500</v>
+      </c>
       <c r="D523" s="35">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E523" s="30" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="20">
+        <v>45023</v>
+      </c>
+      <c r="B524" s="35">
+        <f t="shared" ref="B524:B530" si="29">C523</f>
+        <v>73500</v>
+      </c>
+      <c r="C524" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D524" s="35">
+        <f t="shared" ref="D524:D530" si="30">C524-B524</f>
+        <v>341</v>
+      </c>
+      <c r="E524" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F524">
+        <f>SUM(D518:D524)</f>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="20">
+        <v>45024</v>
+      </c>
+      <c r="B525" s="35">
+        <f t="shared" si="29"/>
+        <v>73841</v>
+      </c>
+      <c r="C525" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D525" s="35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E525" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="20">
+        <v>45025</v>
+      </c>
+      <c r="B526" s="35">
+        <f t="shared" si="29"/>
+        <v>73841</v>
+      </c>
+      <c r="C526" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D526" s="35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E526" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" s="20">
+        <v>45026</v>
+      </c>
+      <c r="B527" s="35">
+        <f t="shared" si="29"/>
+        <v>73841</v>
+      </c>
+      <c r="C527" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D527" s="35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E527" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="20">
+        <v>45027</v>
+      </c>
+      <c r="B528" s="35">
+        <f t="shared" si="29"/>
+        <v>73841</v>
+      </c>
+      <c r="C528" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D528" s="35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E528" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="20">
+        <v>45028</v>
+      </c>
+      <c r="B529" s="35">
+        <f t="shared" si="29"/>
+        <v>73841</v>
+      </c>
+      <c r="C529" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D529" s="35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E529" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="20">
+        <v>45029</v>
+      </c>
+      <c r="B530" s="35">
+        <f t="shared" si="29"/>
+        <v>73841</v>
+      </c>
+      <c r="C530" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D530" s="35">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E530" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="20">
+        <v>45030</v>
+      </c>
+      <c r="B531" s="35">
+        <f t="shared" ref="B531:B594" si="31">C530</f>
+        <v>73841</v>
+      </c>
+      <c r="C531" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D531" s="35">
+        <f t="shared" ref="D531:D594" si="32">C531-B531</f>
+        <v>0</v>
+      </c>
+      <c r="E531" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="20">
+        <v>45031</v>
+      </c>
+      <c r="B532" s="35">
+        <f t="shared" si="31"/>
+        <v>73841</v>
+      </c>
+      <c r="C532" s="35">
+        <v>73841</v>
+      </c>
+      <c r="D532" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E532" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" s="20">
+        <v>45032</v>
+      </c>
+      <c r="B533" s="35">
+        <f t="shared" si="31"/>
+        <v>73841</v>
+      </c>
+      <c r="C533" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D533" s="35">
+        <f t="shared" si="32"/>
+        <v>287</v>
+      </c>
+      <c r="E533" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F533">
+        <f>SUM(D518:D533)</f>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="20">
+        <v>45033</v>
+      </c>
+      <c r="B534" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C534" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D534" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E534" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A535" s="20">
+        <v>45034</v>
+      </c>
+      <c r="B535" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C535" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D535" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E535" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" s="20">
+        <v>45035</v>
+      </c>
+      <c r="B536" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C536" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D536" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E536" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="20">
+        <v>45036</v>
+      </c>
+      <c r="B537" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C537" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D537" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E537" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="20">
+        <v>45037</v>
+      </c>
+      <c r="B538" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C538" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D538" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E538" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A539" s="20">
+        <v>45038</v>
+      </c>
+      <c r="B539" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C539" s="35">
+        <v>74128</v>
+      </c>
+      <c r="D539" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E539" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" s="20">
+        <v>45039</v>
+      </c>
+      <c r="B540" s="35">
+        <f t="shared" si="31"/>
+        <v>74128</v>
+      </c>
+      <c r="C540" s="35">
+        <v>74172</v>
+      </c>
+      <c r="D540" s="35">
+        <f t="shared" si="32"/>
+        <v>44</v>
+      </c>
+      <c r="E540" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F540">
+        <f>SUM(D518:D540)</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" s="20">
+        <v>45040</v>
+      </c>
+      <c r="B541" s="35">
+        <f t="shared" si="31"/>
+        <v>74172</v>
+      </c>
+      <c r="C541" s="35">
+        <v>74172</v>
+      </c>
+      <c r="D541" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E541" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" s="20">
+        <v>45041</v>
+      </c>
+      <c r="B542" s="35">
+        <f t="shared" si="31"/>
+        <v>74172</v>
+      </c>
+      <c r="C542" s="35">
+        <v>74172</v>
+      </c>
+      <c r="D542" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E542" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" s="20">
+        <v>45042</v>
+      </c>
+      <c r="B543" s="35">
+        <f t="shared" si="31"/>
+        <v>74172</v>
+      </c>
+      <c r="C543" s="35">
+        <v>74172</v>
+      </c>
+      <c r="D543" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E543" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" s="20">
+        <v>45043</v>
+      </c>
+      <c r="B544" s="35">
+        <f t="shared" si="31"/>
+        <v>74172</v>
+      </c>
+      <c r="C544" s="35">
+        <v>74172</v>
+      </c>
+      <c r="D544" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E544" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A545" s="20">
+        <v>45044</v>
+      </c>
+      <c r="B545" s="35">
+        <f t="shared" si="31"/>
+        <v>74172</v>
+      </c>
+      <c r="C545" s="35">
+        <v>74172</v>
+      </c>
+      <c r="D545" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E545" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A546" s="20">
+        <v>45045</v>
+      </c>
+      <c r="B546" s="35">
+        <f t="shared" si="31"/>
+        <v>74172</v>
+      </c>
+      <c r="C546" s="35">
+        <v>74251</v>
+      </c>
+      <c r="D546" s="35">
+        <f t="shared" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="E546" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" s="20">
+        <v>45046</v>
+      </c>
+      <c r="B547" s="35">
+        <f t="shared" si="31"/>
+        <v>74251</v>
+      </c>
+      <c r="C547" s="35">
+        <v>74251</v>
+      </c>
+      <c r="D547" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E547" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F547">
+        <f>SUM(D518:D547)</f>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" s="20">
+        <v>45047</v>
+      </c>
+      <c r="B548" s="35">
+        <f t="shared" si="31"/>
+        <v>74251</v>
+      </c>
+      <c r="C548" s="35"/>
+      <c r="D548" s="35">
+        <f t="shared" si="32"/>
+        <v>-74251</v>
+      </c>
+      <c r="E548" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" s="20">
+        <v>45048</v>
+      </c>
+      <c r="B549" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C549" s="35"/>
+      <c r="D549" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E549" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" s="20">
+        <v>45049</v>
+      </c>
+      <c r="B550" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C550" s="35"/>
+      <c r="D550" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E550" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A551" s="20">
+        <v>45050</v>
+      </c>
+      <c r="B551" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C551" s="35"/>
+      <c r="D551" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E551" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A552" s="20">
+        <v>45051</v>
+      </c>
+      <c r="B552" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C552" s="35"/>
+      <c r="D552" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E552" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A553" s="20">
+        <v>45052</v>
+      </c>
+      <c r="B553" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C553" s="35"/>
+      <c r="D553" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E553" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A554" s="20">
+        <v>45053</v>
+      </c>
+      <c r="B554" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C554" s="35"/>
+      <c r="D554" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E554" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F554">
+        <f>SUM(D548:D554)</f>
+        <v>-74251</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A555" s="20">
+        <v>45054</v>
+      </c>
+      <c r="B555" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C555" s="35"/>
+      <c r="D555" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E555" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" s="20">
+        <v>45055</v>
+      </c>
+      <c r="B556" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C556" s="35"/>
+      <c r="D556" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E556" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="20">
+        <v>45056</v>
+      </c>
+      <c r="B557" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C557" s="35"/>
+      <c r="D557" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E557" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" s="20">
+        <v>45057</v>
+      </c>
+      <c r="B558" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C558" s="35"/>
+      <c r="D558" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E558" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A559" s="20">
+        <v>45058</v>
+      </c>
+      <c r="B559" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C559" s="35"/>
+      <c r="D559" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E559" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" s="20">
+        <v>45059</v>
+      </c>
+      <c r="B560" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C560" s="35"/>
+      <c r="D560" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E560" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" s="20">
+        <v>45060</v>
+      </c>
+      <c r="B561" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C561" s="35"/>
+      <c r="D561" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E561" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F561">
+        <f>SUM(D548:D561)</f>
+        <v>-74251</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" s="20">
+        <v>45061</v>
+      </c>
+      <c r="B562" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C562" s="35"/>
+      <c r="D562" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E562" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" s="20">
+        <v>45062</v>
+      </c>
+      <c r="B563" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C563" s="35"/>
+      <c r="D563" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E563" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="20">
+        <v>45063</v>
+      </c>
+      <c r="B564" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C564" s="35"/>
+      <c r="D564" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E564" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A565" s="20">
+        <v>45064</v>
+      </c>
+      <c r="B565" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C565" s="35"/>
+      <c r="D565" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E565" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" s="20">
+        <v>45065</v>
+      </c>
+      <c r="B566" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C566" s="35"/>
+      <c r="D566" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E566" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" s="20">
+        <v>45066</v>
+      </c>
+      <c r="B567" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C567" s="35"/>
+      <c r="D567" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E567" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" s="20">
+        <v>45067</v>
+      </c>
+      <c r="B568" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C568" s="35"/>
+      <c r="D568" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E568" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F568">
+        <f>SUM(D548:D568)</f>
+        <v>-74251</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" s="20">
+        <v>45068</v>
+      </c>
+      <c r="B569" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C569" s="35"/>
+      <c r="D569" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E569" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" s="20">
+        <v>45069</v>
+      </c>
+      <c r="B570" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C570" s="35"/>
+      <c r="D570" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E570" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" s="20">
+        <v>45070</v>
+      </c>
+      <c r="B571" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C571" s="35"/>
+      <c r="D571" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E571" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" s="20">
+        <v>45071</v>
+      </c>
+      <c r="B572" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C572" s="35"/>
+      <c r="D572" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E572" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A573" s="20">
+        <v>45072</v>
+      </c>
+      <c r="B573" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C573" s="35"/>
+      <c r="D573" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E573" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" s="20">
+        <v>45073</v>
+      </c>
+      <c r="B574" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C574" s="35"/>
+      <c r="D574" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E574" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" s="20">
+        <v>45074</v>
+      </c>
+      <c r="B575" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C575" s="35"/>
+      <c r="D575" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E575" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F575">
+        <f>SUM(D548:D575)</f>
+        <v>-74251</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" s="20">
+        <v>45075</v>
+      </c>
+      <c r="B576" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C576" s="35"/>
+      <c r="D576" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E576" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" s="20">
+        <v>45076</v>
+      </c>
+      <c r="B577" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C577" s="35"/>
+      <c r="D577" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E577" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" s="20">
+        <v>45077</v>
+      </c>
+      <c r="B578" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C578" s="35"/>
+      <c r="D578" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E578" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F578">
+        <f>SUM(D548:D578)</f>
+        <v>-74251</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A579" s="20">
+        <v>45078</v>
+      </c>
+      <c r="B579" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C579" s="35"/>
+      <c r="D579" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E579" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A580" s="20">
+        <v>45079</v>
+      </c>
+      <c r="B580" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C580" s="35"/>
+      <c r="D580" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E580" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" s="20">
+        <v>45080</v>
+      </c>
+      <c r="B581" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C581" s="35"/>
+      <c r="D581" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E581" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" s="20">
+        <v>45081</v>
+      </c>
+      <c r="B582" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C582" s="35"/>
+      <c r="D582" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E582" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A583" s="20">
+        <v>45082</v>
+      </c>
+      <c r="B583" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C583" s="35"/>
+      <c r="D583" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E583" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" s="20">
+        <v>45083</v>
+      </c>
+      <c r="B584" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C584" s="35"/>
+      <c r="D584" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E584" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" s="20">
+        <v>45084</v>
+      </c>
+      <c r="B585" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C585" s="35"/>
+      <c r="D585" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E585" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A586" s="20">
+        <v>45085</v>
+      </c>
+      <c r="B586" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C586" s="35"/>
+      <c r="D586" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E586" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" s="20">
+        <v>45086</v>
+      </c>
+      <c r="B587" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C587" s="35"/>
+      <c r="D587" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E587" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A588" s="20">
+        <v>45087</v>
+      </c>
+      <c r="B588" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C588" s="35"/>
+      <c r="D588" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E588" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A589" s="20">
+        <v>45088</v>
+      </c>
+      <c r="B589" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C589" s="35"/>
+      <c r="D589" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E589" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A590" s="20">
+        <v>45089</v>
+      </c>
+      <c r="B590" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C590" s="35"/>
+      <c r="D590" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E590" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" s="20">
+        <v>45090</v>
+      </c>
+      <c r="B591" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C591" s="35"/>
+      <c r="D591" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E591" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A592" s="20">
+        <v>45091</v>
+      </c>
+      <c r="B592" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C592" s="35"/>
+      <c r="D592" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E592" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" s="20">
+        <v>45092</v>
+      </c>
+      <c r="B593" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C593" s="35"/>
+      <c r="D593" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E593" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" s="20">
+        <v>45093</v>
+      </c>
+      <c r="B594" s="35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="C594" s="35"/>
+      <c r="D594" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E594" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" s="20">
+        <v>45094</v>
+      </c>
+      <c r="B595" s="35">
+        <f t="shared" ref="B595:B658" si="33">C594</f>
+        <v>0</v>
+      </c>
+      <c r="C595" s="35"/>
+      <c r="D595" s="35">
+        <f t="shared" ref="D595:D658" si="34">C595-B595</f>
+        <v>0</v>
+      </c>
+      <c r="E595" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" s="20">
+        <v>45095</v>
+      </c>
+      <c r="B596" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C596" s="35"/>
+      <c r="D596" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E596" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" s="20">
+        <v>45096</v>
+      </c>
+      <c r="B597" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C597" s="35"/>
+      <c r="D597" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E597" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" s="20">
+        <v>45097</v>
+      </c>
+      <c r="B598" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C598" s="35"/>
+      <c r="D598" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E598" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" s="20">
+        <v>45098</v>
+      </c>
+      <c r="B599" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C599" s="35"/>
+      <c r="D599" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E599" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" s="20">
+        <v>45099</v>
+      </c>
+      <c r="B600" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C600" s="35"/>
+      <c r="D600" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E600" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" s="20">
+        <v>45100</v>
+      </c>
+      <c r="B601" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C601" s="35"/>
+      <c r="D601" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E601" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" s="20">
+        <v>45101</v>
+      </c>
+      <c r="B602" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C602" s="35"/>
+      <c r="D602" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E602" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" s="20">
+        <v>45102</v>
+      </c>
+      <c r="B603" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C603" s="35"/>
+      <c r="D603" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E603" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" s="20">
+        <v>45103</v>
+      </c>
+      <c r="B604" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C604" s="35"/>
+      <c r="D604" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E604" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" s="20">
+        <v>45104</v>
+      </c>
+      <c r="B605" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C605" s="35"/>
+      <c r="D605" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E605" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" s="20">
+        <v>45105</v>
+      </c>
+      <c r="B606" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C606" s="35"/>
+      <c r="D606" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E606" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" s="20">
+        <v>45106</v>
+      </c>
+      <c r="B607" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C607" s="35"/>
+      <c r="D607" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E607" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" s="20">
+        <v>45107</v>
+      </c>
+      <c r="B608" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C608" s="35"/>
+      <c r="D608" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E608" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" s="20">
+        <v>45108</v>
+      </c>
+      <c r="B609" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C609" s="35"/>
+      <c r="D609" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E609" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" s="20">
+        <v>45109</v>
+      </c>
+      <c r="B610" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C610" s="35"/>
+      <c r="D610" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E610" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" s="20">
+        <v>45110</v>
+      </c>
+      <c r="B611" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C611" s="35"/>
+      <c r="D611" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E611" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" s="20">
+        <v>45111</v>
+      </c>
+      <c r="B612" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C612" s="35"/>
+      <c r="D612" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E612" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" s="20">
+        <v>45112</v>
+      </c>
+      <c r="B613" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C613" s="35"/>
+      <c r="D613" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E613" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" s="20">
+        <v>45113</v>
+      </c>
+      <c r="B614" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C614" s="35"/>
+      <c r="D614" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E614" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" s="20">
+        <v>45114</v>
+      </c>
+      <c r="B615" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C615" s="35"/>
+      <c r="D615" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E615" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" s="20">
+        <v>45115</v>
+      </c>
+      <c r="B616" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C616" s="35"/>
+      <c r="D616" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E616" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" s="20">
+        <v>45116</v>
+      </c>
+      <c r="B617" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C617" s="35"/>
+      <c r="D617" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E617" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" s="20">
+        <v>45117</v>
+      </c>
+      <c r="B618" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C618" s="35"/>
+      <c r="D618" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E618" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" s="20">
+        <v>45118</v>
+      </c>
+      <c r="B619" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C619" s="35"/>
+      <c r="D619" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E619" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" s="20">
+        <v>45119</v>
+      </c>
+      <c r="B620" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C620" s="35"/>
+      <c r="D620" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E620" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" s="20">
+        <v>45120</v>
+      </c>
+      <c r="B621" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C621" s="35"/>
+      <c r="D621" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E621" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" s="20">
+        <v>45121</v>
+      </c>
+      <c r="B622" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C622" s="35"/>
+      <c r="D622" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E622" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" s="20">
+        <v>45122</v>
+      </c>
+      <c r="B623" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C623" s="35"/>
+      <c r="D623" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E623" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" s="20">
+        <v>45123</v>
+      </c>
+      <c r="B624" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C624" s="35"/>
+      <c r="D624" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E624" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" s="20">
+        <v>45124</v>
+      </c>
+      <c r="B625" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C625" s="35"/>
+      <c r="D625" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E625" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" s="20">
+        <v>45125</v>
+      </c>
+      <c r="B626" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C626" s="35"/>
+      <c r="D626" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E626" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" s="20">
+        <v>45126</v>
+      </c>
+      <c r="B627" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C627" s="35"/>
+      <c r="D627" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E627" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" s="20">
+        <v>45127</v>
+      </c>
+      <c r="B628" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C628" s="35"/>
+      <c r="D628" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E628" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" s="20">
+        <v>45128</v>
+      </c>
+      <c r="B629" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C629" s="35"/>
+      <c r="D629" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E629" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" s="20">
+        <v>45129</v>
+      </c>
+      <c r="B630" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C630" s="35"/>
+      <c r="D630" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E630" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" s="20">
+        <v>45130</v>
+      </c>
+      <c r="B631" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C631" s="35"/>
+      <c r="D631" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E631" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" s="20">
+        <v>45131</v>
+      </c>
+      <c r="B632" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C632" s="35"/>
+      <c r="D632" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E632" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" s="20">
+        <v>45132</v>
+      </c>
+      <c r="B633" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C633" s="35"/>
+      <c r="D633" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E633" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" s="20">
+        <v>45133</v>
+      </c>
+      <c r="B634" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C634" s="35"/>
+      <c r="D634" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E634" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" s="20">
+        <v>45134</v>
+      </c>
+      <c r="B635" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C635" s="35"/>
+      <c r="D635" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E635" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" s="20">
+        <v>45135</v>
+      </c>
+      <c r="B636" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C636" s="35"/>
+      <c r="D636" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E636" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" s="20">
+        <v>45136</v>
+      </c>
+      <c r="B637" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C637" s="35"/>
+      <c r="D637" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E637" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" s="20">
+        <v>45137</v>
+      </c>
+      <c r="B638" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C638" s="35"/>
+      <c r="D638" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E638" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" s="20">
+        <v>45138</v>
+      </c>
+      <c r="B639" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C639" s="35"/>
+      <c r="D639" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E639" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" s="20">
+        <v>45139</v>
+      </c>
+      <c r="B640" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C640" s="35"/>
+      <c r="D640" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E640" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" s="20">
+        <v>45140</v>
+      </c>
+      <c r="B641" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C641" s="35"/>
+      <c r="D641" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E641" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" s="20">
+        <v>45141</v>
+      </c>
+      <c r="B642" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C642" s="35"/>
+      <c r="D642" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E642" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" s="20">
+        <v>45142</v>
+      </c>
+      <c r="B643" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C643" s="35"/>
+      <c r="D643" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E643" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" s="20">
+        <v>45143</v>
+      </c>
+      <c r="B644" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C644" s="35"/>
+      <c r="D644" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E644" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" s="20">
+        <v>45144</v>
+      </c>
+      <c r="B645" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C645" s="35"/>
+      <c r="D645" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E645" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" s="20">
+        <v>45145</v>
+      </c>
+      <c r="B646" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C646" s="35"/>
+      <c r="D646" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E646" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" s="20">
+        <v>45146</v>
+      </c>
+      <c r="B647" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C647" s="35"/>
+      <c r="D647" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E647" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" s="20">
+        <v>45147</v>
+      </c>
+      <c r="B648" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C648" s="35"/>
+      <c r="D648" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E648" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A649" s="20">
+        <v>45148</v>
+      </c>
+      <c r="B649" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C649" s="35"/>
+      <c r="D649" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E649" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A650" s="20">
+        <v>45149</v>
+      </c>
+      <c r="B650" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C650" s="35"/>
+      <c r="D650" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E650" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" s="20">
+        <v>45150</v>
+      </c>
+      <c r="B651" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C651" s="35"/>
+      <c r="D651" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E651" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" s="20">
+        <v>45151</v>
+      </c>
+      <c r="B652" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C652" s="35"/>
+      <c r="D652" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E652" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" s="20">
+        <v>45152</v>
+      </c>
+      <c r="B653" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C653" s="35"/>
+      <c r="D653" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E653" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" s="20">
+        <v>45153</v>
+      </c>
+      <c r="B654" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C654" s="35"/>
+      <c r="D654" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E654" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" s="20">
+        <v>45154</v>
+      </c>
+      <c r="B655" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C655" s="35"/>
+      <c r="D655" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E655" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" s="20">
+        <v>45155</v>
+      </c>
+      <c r="B656" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C656" s="35"/>
+      <c r="D656" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E656" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A657" s="20">
+        <v>45156</v>
+      </c>
+      <c r="B657" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C657" s="35"/>
+      <c r="D657" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E657" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A658" s="20">
+        <v>45157</v>
+      </c>
+      <c r="B658" s="35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C658" s="35"/>
+      <c r="D658" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E658" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A659" s="20">
+        <v>45158</v>
+      </c>
+      <c r="B659" s="35">
+        <f t="shared" ref="B659:B722" si="35">C658</f>
+        <v>0</v>
+      </c>
+      <c r="C659" s="35"/>
+      <c r="D659" s="35">
+        <f t="shared" ref="D659:D722" si="36">C659-B659</f>
+        <v>0</v>
+      </c>
+      <c r="E659" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A660" s="20">
+        <v>45159</v>
+      </c>
+      <c r="B660" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C660" s="35"/>
+      <c r="D660" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E660" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A661" s="20">
+        <v>45160</v>
+      </c>
+      <c r="B661" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C661" s="35"/>
+      <c r="D661" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E661" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A662" s="20">
+        <v>45161</v>
+      </c>
+      <c r="B662" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C662" s="35"/>
+      <c r="D662" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E662" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A663" s="20">
+        <v>45162</v>
+      </c>
+      <c r="B663" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C663" s="35"/>
+      <c r="D663" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E663" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A664" s="20">
+        <v>45163</v>
+      </c>
+      <c r="B664" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C664" s="35"/>
+      <c r="D664" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E664" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A665" s="20">
+        <v>45164</v>
+      </c>
+      <c r="B665" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C665" s="35"/>
+      <c r="D665" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E665" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A666" s="20">
+        <v>45165</v>
+      </c>
+      <c r="B666" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C666" s="35"/>
+      <c r="D666" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E666" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A667" s="20">
+        <v>45166</v>
+      </c>
+      <c r="B667" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C667" s="35"/>
+      <c r="D667" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E667" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A668" s="20">
+        <v>45167</v>
+      </c>
+      <c r="B668" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C668" s="35"/>
+      <c r="D668" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E668" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A669" s="20">
+        <v>45168</v>
+      </c>
+      <c r="B669" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C669" s="35"/>
+      <c r="D669" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E669" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A670" s="20">
+        <v>45169</v>
+      </c>
+      <c r="B670" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C670" s="35"/>
+      <c r="D670" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E670" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A671" s="20">
+        <v>45170</v>
+      </c>
+      <c r="B671" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C671" s="35"/>
+      <c r="D671" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E671" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A672" s="20">
+        <v>45171</v>
+      </c>
+      <c r="B672" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C672" s="35"/>
+      <c r="D672" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E672" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A673" s="20">
+        <v>45172</v>
+      </c>
+      <c r="B673" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C673" s="35"/>
+      <c r="D673" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E673" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A674" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B674" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C674" s="35"/>
+      <c r="D674" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E674" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A675" s="20">
+        <v>45174</v>
+      </c>
+      <c r="B675" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C675" s="35"/>
+      <c r="D675" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E675" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A676" s="20">
+        <v>45175</v>
+      </c>
+      <c r="B676" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C676" s="35"/>
+      <c r="D676" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E676" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" s="20">
+        <v>45176</v>
+      </c>
+      <c r="B677" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C677" s="35"/>
+      <c r="D677" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E677" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" s="20">
+        <v>45177</v>
+      </c>
+      <c r="B678" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C678" s="35"/>
+      <c r="D678" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E678" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" s="20">
+        <v>45178</v>
+      </c>
+      <c r="B679" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C679" s="35"/>
+      <c r="D679" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E679" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" s="20">
+        <v>45179</v>
+      </c>
+      <c r="B680" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C680" s="35"/>
+      <c r="D680" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E680" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" s="20">
+        <v>45180</v>
+      </c>
+      <c r="B681" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C681" s="35"/>
+      <c r="D681" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E681" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A682" s="20">
+        <v>45181</v>
+      </c>
+      <c r="B682" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C682" s="35"/>
+      <c r="D682" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E682" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A683" s="20">
+        <v>45182</v>
+      </c>
+      <c r="B683" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C683" s="35"/>
+      <c r="D683" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E683" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A684" s="20">
+        <v>45183</v>
+      </c>
+      <c r="B684" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C684" s="35"/>
+      <c r="D684" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E684" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A685" s="20">
+        <v>45184</v>
+      </c>
+      <c r="B685" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C685" s="35"/>
+      <c r="D685" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E685" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A686" s="20">
+        <v>45185</v>
+      </c>
+      <c r="B686" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C686" s="35"/>
+      <c r="D686" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E686" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A687" s="20">
+        <v>45186</v>
+      </c>
+      <c r="B687" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C687" s="35"/>
+      <c r="D687" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E687" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A688" s="20">
+        <v>45187</v>
+      </c>
+      <c r="B688" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C688" s="35"/>
+      <c r="D688" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E688" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A689" s="20">
+        <v>45188</v>
+      </c>
+      <c r="B689" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C689" s="35"/>
+      <c r="D689" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E689" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A690" s="20">
+        <v>45189</v>
+      </c>
+      <c r="B690" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C690" s="35"/>
+      <c r="D690" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E690" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A691" s="20">
+        <v>45190</v>
+      </c>
+      <c r="B691" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C691" s="35"/>
+      <c r="D691" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E691" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A692" s="20">
+        <v>45191</v>
+      </c>
+      <c r="B692" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C692" s="35"/>
+      <c r="D692" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E692" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A693" s="20">
+        <v>45192</v>
+      </c>
+      <c r="B693" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C693" s="35"/>
+      <c r="D693" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E693" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A694" s="20">
+        <v>45193</v>
+      </c>
+      <c r="B694" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C694" s="35"/>
+      <c r="D694" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E694" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A695" s="20">
+        <v>45194</v>
+      </c>
+      <c r="B695" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C695" s="35"/>
+      <c r="D695" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E695" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A696" s="20">
+        <v>45195</v>
+      </c>
+      <c r="B696" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C696" s="35"/>
+      <c r="D696" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E696" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A697" s="20">
+        <v>45196</v>
+      </c>
+      <c r="B697" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C697" s="35"/>
+      <c r="D697" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E697" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A698" s="20">
+        <v>45197</v>
+      </c>
+      <c r="B698" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C698" s="35"/>
+      <c r="D698" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E698" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A699" s="20">
+        <v>45198</v>
+      </c>
+      <c r="B699" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C699" s="35"/>
+      <c r="D699" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E699" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A700" s="20">
+        <v>45199</v>
+      </c>
+      <c r="B700" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C700" s="35"/>
+      <c r="D700" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E700" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A701" s="20">
+        <v>45200</v>
+      </c>
+      <c r="B701" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C701" s="35"/>
+      <c r="D701" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E701" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A702" s="20">
+        <v>45201</v>
+      </c>
+      <c r="B702" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C702" s="35"/>
+      <c r="D702" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E702" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A703" s="20">
+        <v>45202</v>
+      </c>
+      <c r="B703" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C703" s="35"/>
+      <c r="D703" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E703" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A704" s="20">
+        <v>45203</v>
+      </c>
+      <c r="B704" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C704" s="35"/>
+      <c r="D704" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E704" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A705" s="20">
+        <v>45204</v>
+      </c>
+      <c r="B705" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C705" s="35"/>
+      <c r="D705" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E705" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A706" s="20">
+        <v>45205</v>
+      </c>
+      <c r="B706" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C706" s="35"/>
+      <c r="D706" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E706" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A707" s="20">
+        <v>45206</v>
+      </c>
+      <c r="B707" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C707" s="35"/>
+      <c r="D707" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E707" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A708" s="20">
+        <v>45207</v>
+      </c>
+      <c r="B708" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C708" s="35"/>
+      <c r="D708" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E708" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A709" s="20">
+        <v>45208</v>
+      </c>
+      <c r="B709" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C709" s="35"/>
+      <c r="D709" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E709" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A710" s="20">
+        <v>45209</v>
+      </c>
+      <c r="B710" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C710" s="35"/>
+      <c r="D710" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E710" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A711" s="20">
+        <v>45210</v>
+      </c>
+      <c r="B711" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C711" s="35"/>
+      <c r="D711" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E711" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A712" s="20">
+        <v>45211</v>
+      </c>
+      <c r="B712" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C712" s="35"/>
+      <c r="D712" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E712" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A713" s="20">
+        <v>45212</v>
+      </c>
+      <c r="B713" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C713" s="35"/>
+      <c r="D713" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E713" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A714" s="20">
+        <v>45213</v>
+      </c>
+      <c r="B714" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C714" s="35"/>
+      <c r="D714" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E714" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A715" s="20">
+        <v>45214</v>
+      </c>
+      <c r="B715" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C715" s="35"/>
+      <c r="D715" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E715" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A716" s="20">
+        <v>45215</v>
+      </c>
+      <c r="B716" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C716" s="35"/>
+      <c r="D716" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E716" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A717" s="20">
+        <v>45216</v>
+      </c>
+      <c r="B717" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C717" s="35"/>
+      <c r="D717" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E717" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A718" s="20">
+        <v>45217</v>
+      </c>
+      <c r="B718" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C718" s="35"/>
+      <c r="D718" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E718" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A719" s="20">
+        <v>45218</v>
+      </c>
+      <c r="B719" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C719" s="35"/>
+      <c r="D719" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E719" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A720" s="20">
+        <v>45219</v>
+      </c>
+      <c r="B720" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C720" s="35"/>
+      <c r="D720" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E720" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A721" s="20">
+        <v>45220</v>
+      </c>
+      <c r="B721" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C721" s="35"/>
+      <c r="D721" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E721" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A722" s="20">
+        <v>45221</v>
+      </c>
+      <c r="B722" s="35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C722" s="35"/>
+      <c r="D722" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E722" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A723" s="20">
+        <v>45222</v>
+      </c>
+      <c r="B723" s="35">
+        <f t="shared" ref="B723:B786" si="37">C722</f>
+        <v>0</v>
+      </c>
+      <c r="C723" s="35"/>
+      <c r="D723" s="35">
+        <f t="shared" ref="D723:D786" si="38">C723-B723</f>
+        <v>0</v>
+      </c>
+      <c r="E723" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A724" s="20">
+        <v>45223</v>
+      </c>
+      <c r="B724" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C724" s="35"/>
+      <c r="D724" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E724" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A725" s="20">
+        <v>45224</v>
+      </c>
+      <c r="B725" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C725" s="35"/>
+      <c r="D725" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E725" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A726" s="20">
+        <v>45225</v>
+      </c>
+      <c r="B726" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C726" s="35"/>
+      <c r="D726" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E726" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A727" s="20">
+        <v>45226</v>
+      </c>
+      <c r="B727" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C727" s="35"/>
+      <c r="D727" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E727" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A728" s="20">
+        <v>45227</v>
+      </c>
+      <c r="B728" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C728" s="35"/>
+      <c r="D728" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E728" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A729" s="20">
+        <v>45228</v>
+      </c>
+      <c r="B729" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C729" s="35"/>
+      <c r="D729" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E729" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A730" s="20">
+        <v>45229</v>
+      </c>
+      <c r="B730" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C730" s="35"/>
+      <c r="D730" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E730" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A731" s="20">
+        <v>45230</v>
+      </c>
+      <c r="B731" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C731" s="35"/>
+      <c r="D731" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E731" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A732" s="20">
+        <v>45231</v>
+      </c>
+      <c r="B732" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C732" s="35"/>
+      <c r="D732" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E732" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A733" s="20">
+        <v>45232</v>
+      </c>
+      <c r="B733" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C733" s="35"/>
+      <c r="D733" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E733" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A734" s="20">
+        <v>45233</v>
+      </c>
+      <c r="B734" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C734" s="35"/>
+      <c r="D734" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E734" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A735" s="20">
+        <v>45234</v>
+      </c>
+      <c r="B735" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C735" s="35"/>
+      <c r="D735" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E735" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A736" s="20">
+        <v>45235</v>
+      </c>
+      <c r="B736" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C736" s="35"/>
+      <c r="D736" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E736" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A737" s="20">
+        <v>45236</v>
+      </c>
+      <c r="B737" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C737" s="35"/>
+      <c r="D737" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E737" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A738" s="20">
+        <v>45237</v>
+      </c>
+      <c r="B738" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C738" s="35"/>
+      <c r="D738" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E738" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A739" s="20">
+        <v>45238</v>
+      </c>
+      <c r="B739" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C739" s="35"/>
+      <c r="D739" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E739" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A740" s="20">
+        <v>45239</v>
+      </c>
+      <c r="B740" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C740" s="35"/>
+      <c r="D740" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E740" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A741" s="20">
+        <v>45240</v>
+      </c>
+      <c r="B741" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C741" s="35"/>
+      <c r="D741" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E741" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A742" s="20">
+        <v>45241</v>
+      </c>
+      <c r="B742" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C742" s="35"/>
+      <c r="D742" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E742" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A743" s="20">
+        <v>45242</v>
+      </c>
+      <c r="B743" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C743" s="35"/>
+      <c r="D743" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E743" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A744" s="20">
+        <v>45243</v>
+      </c>
+      <c r="B744" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C744" s="35"/>
+      <c r="D744" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E744" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A745" s="20">
+        <v>45244</v>
+      </c>
+      <c r="B745" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C745" s="35"/>
+      <c r="D745" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E745" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A746" s="20">
+        <v>45245</v>
+      </c>
+      <c r="B746" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C746" s="35"/>
+      <c r="D746" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E746" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A747" s="20">
+        <v>45246</v>
+      </c>
+      <c r="B747" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C747" s="35"/>
+      <c r="D747" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E747" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A748" s="20">
+        <v>45247</v>
+      </c>
+      <c r="B748" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C748" s="35"/>
+      <c r="D748" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E748" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A749" s="20">
+        <v>45248</v>
+      </c>
+      <c r="B749" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C749" s="35"/>
+      <c r="D749" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E749" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A750" s="20">
+        <v>45249</v>
+      </c>
+      <c r="B750" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C750" s="35"/>
+      <c r="D750" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E750" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A751" s="20">
+        <v>45250</v>
+      </c>
+      <c r="B751" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C751" s="35"/>
+      <c r="D751" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E751" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A752" s="20">
+        <v>45251</v>
+      </c>
+      <c r="B752" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C752" s="35"/>
+      <c r="D752" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E752" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A753" s="20">
+        <v>45252</v>
+      </c>
+      <c r="B753" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C753" s="35"/>
+      <c r="D753" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E753" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A754" s="20">
+        <v>45253</v>
+      </c>
+      <c r="B754" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C754" s="35"/>
+      <c r="D754" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E754" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A755" s="20">
+        <v>45254</v>
+      </c>
+      <c r="B755" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C755" s="35"/>
+      <c r="D755" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E755" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A756" s="20">
+        <v>45255</v>
+      </c>
+      <c r="B756" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C756" s="35"/>
+      <c r="D756" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E756" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A757" s="20">
+        <v>45256</v>
+      </c>
+      <c r="B757" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C757" s="35"/>
+      <c r="D757" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E757" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A758" s="20">
+        <v>45257</v>
+      </c>
+      <c r="B758" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C758" s="35"/>
+      <c r="D758" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E758" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A759" s="20">
+        <v>45258</v>
+      </c>
+      <c r="B759" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C759" s="35"/>
+      <c r="D759" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E759" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A760" s="20">
+        <v>45259</v>
+      </c>
+      <c r="B760" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C760" s="35"/>
+      <c r="D760" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E760" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A761" s="20">
+        <v>45260</v>
+      </c>
+      <c r="B761" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C761" s="35"/>
+      <c r="D761" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E761" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A762" s="20">
+        <v>45261</v>
+      </c>
+      <c r="B762" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C762" s="35"/>
+      <c r="D762" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E762" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A763" s="20">
+        <v>45262</v>
+      </c>
+      <c r="B763" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C763" s="35"/>
+      <c r="D763" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E763" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A764" s="20">
+        <v>45263</v>
+      </c>
+      <c r="B764" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C764" s="35"/>
+      <c r="D764" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E764" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A765" s="20">
+        <v>45264</v>
+      </c>
+      <c r="B765" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C765" s="35"/>
+      <c r="D765" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E765" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A766" s="20">
+        <v>45265</v>
+      </c>
+      <c r="B766" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C766" s="35"/>
+      <c r="D766" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E766" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A767" s="20">
+        <v>45266</v>
+      </c>
+      <c r="B767" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C767" s="35"/>
+      <c r="D767" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E767" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A768" s="20">
+        <v>45267</v>
+      </c>
+      <c r="B768" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C768" s="35"/>
+      <c r="D768" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E768" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A769" s="20">
+        <v>45268</v>
+      </c>
+      <c r="B769" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C769" s="35"/>
+      <c r="D769" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E769" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A770" s="20">
+        <v>45269</v>
+      </c>
+      <c r="B770" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C770" s="35"/>
+      <c r="D770" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E770" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A771" s="20">
+        <v>45270</v>
+      </c>
+      <c r="B771" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C771" s="35"/>
+      <c r="D771" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E771" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A772" s="20">
+        <v>45271</v>
+      </c>
+      <c r="B772" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C772" s="35"/>
+      <c r="D772" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E772" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A773" s="20">
+        <v>45272</v>
+      </c>
+      <c r="B773" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C773" s="35"/>
+      <c r="D773" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E773" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A774" s="20">
+        <v>45273</v>
+      </c>
+      <c r="B774" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C774" s="35"/>
+      <c r="D774" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E774" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A775" s="20">
+        <v>45274</v>
+      </c>
+      <c r="B775" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C775" s="35"/>
+      <c r="D775" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E775" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A776" s="20">
+        <v>45275</v>
+      </c>
+      <c r="B776" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C776" s="35"/>
+      <c r="D776" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E776" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A777" s="20">
+        <v>45276</v>
+      </c>
+      <c r="B777" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C777" s="35"/>
+      <c r="D777" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E777" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A778" s="20">
+        <v>45277</v>
+      </c>
+      <c r="B778" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C778" s="35"/>
+      <c r="D778" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E778" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A779" s="20">
+        <v>45278</v>
+      </c>
+      <c r="B779" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C779" s="35"/>
+      <c r="D779" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E779" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A780" s="20">
+        <v>45279</v>
+      </c>
+      <c r="B780" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C780" s="35"/>
+      <c r="D780" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E780" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A781" s="20">
+        <v>45280</v>
+      </c>
+      <c r="B781" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C781" s="35"/>
+      <c r="D781" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E781" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A782" s="20">
+        <v>45281</v>
+      </c>
+      <c r="B782" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C782" s="35"/>
+      <c r="D782" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E782" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A783" s="20">
+        <v>45282</v>
+      </c>
+      <c r="B783" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C783" s="35"/>
+      <c r="D783" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E783" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A784" s="20">
+        <v>45283</v>
+      </c>
+      <c r="B784" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C784" s="35"/>
+      <c r="D784" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E784" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A785" s="20">
+        <v>45284</v>
+      </c>
+      <c r="B785" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C785" s="35"/>
+      <c r="D785" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E785" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A786" s="20">
+        <v>45285</v>
+      </c>
+      <c r="B786" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C786" s="35"/>
+      <c r="D786" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E786" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A787" s="20">
+        <v>45286</v>
+      </c>
+      <c r="B787" s="35">
+        <f t="shared" ref="B787:B793" si="39">C786</f>
+        <v>0</v>
+      </c>
+      <c r="C787" s="35"/>
+      <c r="D787" s="35">
+        <f t="shared" ref="D787:D793" si="40">C787-B787</f>
+        <v>0</v>
+      </c>
+      <c r="E787" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A788" s="20">
+        <v>45287</v>
+      </c>
+      <c r="B788" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="C788" s="35"/>
+      <c r="D788" s="35">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E788" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A789" s="20">
+        <v>45288</v>
+      </c>
+      <c r="B789" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="C789" s="35"/>
+      <c r="D789" s="35">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E789" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A790" s="20">
+        <v>45289</v>
+      </c>
+      <c r="B790" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="C790" s="35"/>
+      <c r="D790" s="35">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E790" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A791" s="20">
+        <v>45290</v>
+      </c>
+      <c r="B791" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="C791" s="35"/>
+      <c r="D791" s="35">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E791" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A792" s="20">
+        <v>45291</v>
+      </c>
+      <c r="B792" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="C792" s="35"/>
+      <c r="D792" s="35">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E792" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A793" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B793" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="C793" s="35"/>
+      <c r="D793" s="35">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E793" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
